--- a/4. Отдел ДУ/5. Испытания/Испытания 25.05.24/Испытания 25.05.xlsx
+++ b/4. Отдел ДУ/5. Испытания/Испытания 25.05.24/Испытания 25.05.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex\YandexDisk\Ro_Tech\4. Отдел ДУ\5. Испытания\Испытания 25.05.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF815D-A289-4105-9467-F32FD7E7D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B00A73-83C5-4878-9095-5359C010439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C0F5AD10-8099-40E9-BFF5-6019F7953997}"/>
+    <workbookView minimized="1" xWindow="8040" yWindow="1452" windowWidth="9828" windowHeight="12612" xr2:uid="{C0F5AD10-8099-40E9-BFF5-6019F7953997}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>1 испытание</t>
   </si>
@@ -341,12 +341,6 @@
     <t>11.7-8.7</t>
   </si>
   <si>
-    <t>0.017-0.23</t>
-  </si>
-  <si>
-    <t>627 - неправд.</t>
-  </si>
-  <si>
     <t>нет, но данные неправд.</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
   </si>
   <si>
     <t>8.5</t>
-  </si>
-  <si>
-    <t>0.023</t>
   </si>
   <si>
     <t>при расчете до начала падения по колебаниям расход 0.27 и расходный комплекс 495</t>
@@ -428,9 +419,6 @@
     <t>21.6-25.4</t>
   </si>
   <si>
-    <t>0.017</t>
-  </si>
-  <si>
     <t>неправдоподобно</t>
   </si>
   <si>
@@ -474,60 +462,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2. Эксперимент по созданию полного разложения перексиси рабочей концентрации - давление наддува 16.5 атмосфер, 400 мл, концентрация: рабочая - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>сохранить катпак</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Эксперимент поверки данных полного разложения: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>сохранить катпака</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Эксперимент поверки данных полного разложения: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая </t>
-  </si>
-  <si>
-    <r>
-      <t>5. Эксперимент по использованию катпака после теста 400 мл: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> катпак теста 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Эксперимент по созданию неполного разложение - заложить очень мало катпака, давление 16.5  атмосфер, 400  мл, концентрация 60% + </t>
     </r>
     <r>
@@ -545,7 +479,61 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6. Эксперимент по использованию катпака после теста 200 мл: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая - </t>
+      <t xml:space="preserve">4. Эксперимент по созданию полного разложения перексиси рабочей концентрации - давление наддува 16.5 атмосфер, 400 мл, концентрация: рабочая - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сохранить катпак</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Эксперимент поверки данных полного разложения: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сохранить катпака</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Эксперимент поверки данных полного разложения: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая </t>
+  </si>
+  <si>
+    <r>
+      <t>7. Эксперимент по использованию катпака после теста 400 мл: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> катпак теста 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Эксперимент по использованию катпака после теста 200 мл: давление наддува 16.5 атмосфер, 200 мл, концентрация: рабочая - </t>
     </r>
     <r>
       <rPr>
@@ -559,6 +547,80 @@
       </rPr>
       <t>катпак теста 3</t>
     </r>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.028-0.21</t>
+  </si>
+  <si>
+    <t>0.011-0.0097</t>
+  </si>
+  <si>
+    <t>Будет ли влиять концентрация перекиси на к-во катпака нужное?</t>
+  </si>
+  <si>
+    <t>Альтернативная программа испытаний</t>
+  </si>
+  <si>
+    <t>2. Эксперимент по определению расхода через 15 отверстий - новый катпак, 16.5 атмосфер наддува, 200 мл, концентрация 60%</t>
+  </si>
+  <si>
+    <t>3. Эксперимент по определению расхода через 30 отверстий -новый катпак, 16.5 атмосфер наддува, 200 мл, концентрация 60%</t>
+  </si>
+  <si>
+    <t>5. Эксперимент по определению соответствия полноты разложения перекиси рабочей концентрации и концентрации 60: 200 мл, концентрация: рабочая, давление 16.5 атмосфер</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Эксперимент по определению завыисимости расхода и давления наддува: катпак нрвый, 200 мл, 28 атмосфер, концентрация: 60% - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>наименьшее к-во отверстий!</t>
+    </r>
+  </si>
+  <si>
+    <t>План:</t>
+  </si>
+  <si>
+    <t>1. Понимаем зависимость расхода от к-ва отверстий</t>
+  </si>
+  <si>
+    <t>2. Понимаем паралельно, не выпадаем ли мы из области полного разложения</t>
+  </si>
+  <si>
+    <t>3. Понимаем, разлагается ли при наших параметрах перекись рабочей концентрации</t>
+  </si>
+  <si>
+    <t>4. Если мы определим зависимость расхода по к-ву отверстий, и при всех опытах нагрев +- тот же, то берем некоторе к-во отверстий, обеспечивающих полное разложение, проверяем полное разложнгие на раюочей концентрации ипроектируем камеру так, что б расход через единицу площади камеры не менялся.</t>
+  </si>
+  <si>
+    <t>5. Делаем тестовую камеру.</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.25</t>
+  </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>27.50</t>
   </si>
 </sst>
 </file>
@@ -849,7 +911,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -871,68 +933,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,26 +968,69 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -10799,6 +10865,1953 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-4EFE-4B47-90EC-D9A5EC066C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>сосание</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$N$223:$N$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3834</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5088</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5339</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6091</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6342</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7597</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7847</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8348</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9854</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10606</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10857</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11610</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11861</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12361</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12612</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12863</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13616</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13867</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14118</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14368</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14618</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14869</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15120</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15371</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15622</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15873</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16124</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16374</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16876</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17126</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17377</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17628</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17879</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18130</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18631</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18882</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19133</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19634</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19885</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20387</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20888</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$223:$M$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>109.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>101.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>95.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>93.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>92.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B895-4368-9120-338866B3AECD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>недоразложение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$215:$F$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3628</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3878</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4882</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5885</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6387</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6638</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6889</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7391</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7642</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7891</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8393</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8644</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8895</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9397</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9648</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10149</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10651</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11403</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11654</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11905</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12155</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12406</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12657</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12908</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13159</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13410</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13660</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13911</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14412</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14663</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14914</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15165</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15416</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15917</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16167</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16418</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16920</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17422</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17673</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17924</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18174</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18675</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18926</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19177</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19428</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19679</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19930</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20180</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20682</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20932</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21183</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21434</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21685</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21936</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22187</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22437</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$215:$E$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>109.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>86.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>84.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>82.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B895-4368-9120-338866B3AECD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>контроль</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$209:$V$335</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3473</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5730</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5981</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6734</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7485</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7736</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7987</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8238</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8489</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8740</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9743</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10245</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10747</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11248</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11749</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12251</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12502</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12753</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13255</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13756</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14258</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14509</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15011</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15262</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15513</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15762</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16013</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16264</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16515</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16766</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17017</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17268</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17519</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17769</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18271</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18522</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18773</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19024</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19275</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19526</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19777</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20026</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20277</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20528</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20779</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21030</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21281</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21532</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21783</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22033</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22284</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22535</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22786</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23037</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23288</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23539</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23790</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24040</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24290</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24541</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24792</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>25043</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25294</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25545</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25796</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>26046</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26297</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26548</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26799</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>27050</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27301</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27552</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>28054</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28304</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28554</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28805</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>29056</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29307</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>29558</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29809</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>30060</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30310</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30561</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30812</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>31063</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31314</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31565</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$U$209:$U$335</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+                <c:pt idx="0">
+                  <c:v>45.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>138.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>144.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>147.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>152.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>149.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>146.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>140.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>138.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>132.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>129.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>128.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>125.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>120.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>119.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>118.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>115.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>113.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>112.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>110.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>111.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>112.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>112.75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>112.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>113.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>113.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>113.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>115.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>114.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B895-4368-9120-338866B3AECD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14881,10 +16894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A685D4-FE05-4AEC-9002-32F73EDA5502}">
-  <dimension ref="A1:BL236"/>
+  <dimension ref="A1:BL335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14894,20 +16907,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
       <c r="AR1" t="s">
         <v>32</v>
       </c>
@@ -15044,18 +17057,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="AJ5">
         <v>23820</v>
       </c>
@@ -15150,7 +17163,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ7">
         <v>24322</v>
@@ -15256,10 +17269,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="43"/>
       <c r="AJ9">
         <v>24823</v>
       </c>
@@ -15311,10 +17324,10 @@
     </row>
     <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ10">
         <v>25074</v>
@@ -15370,15 +17383,15 @@
       </c>
     </row>
     <row r="11" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="44"/>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
@@ -15494,10 +17507,10 @@
       </c>
     </row>
     <row r="13" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="45"/>
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -15562,10 +17575,10 @@
       </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="41"/>
       <c r="AJ14">
         <v>26077</v>
       </c>
@@ -15682,10 +17695,10 @@
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="33"/>
       <c r="AJ16">
         <v>26578</v>
       </c>
@@ -15809,13 +17822,13 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ18">
         <v>27080</v>
@@ -15933,10 +17946,10 @@
       </c>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="35"/>
       <c r="AJ20">
         <v>27582</v>
       </c>
@@ -15995,10 +18008,10 @@
       </c>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>495</v>
-      </c>
-      <c r="B21" s="18"/>
+      <c r="A21" s="39">
+        <v>497</v>
+      </c>
+      <c r="B21" s="41"/>
       <c r="AJ21">
         <v>27833</v>
       </c>
@@ -16057,10 +18070,13 @@
       </c>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="38"/>
+      <c r="C22">
+        <v>471</v>
+      </c>
       <c r="AJ22">
         <v>28084</v>
       </c>
@@ -16385,20 +18401,20 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
       <c r="AJ27">
         <v>29337</v>
       </c>
@@ -16745,18 +18761,18 @@
         <v>2</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
       <c r="AJ31">
         <v>30341</v>
       </c>
@@ -17100,10 +19116,10 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="43"/>
       <c r="AJ35">
         <v>31344</v>
       </c>
@@ -17274,10 +19290,10 @@
       </c>
     </row>
     <row r="37" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="44"/>
       <c r="E37" t="s">
         <v>18</v>
       </c>
@@ -17448,10 +19464,10 @@
       </c>
     </row>
     <row r="39" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="45"/>
       <c r="E39" t="s">
         <v>19</v>
       </c>
@@ -17540,10 +19556,10 @@
       </c>
     </row>
     <row r="40" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="18"/>
+      <c r="A40" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="41"/>
       <c r="AJ40">
         <v>32599</v>
       </c>
@@ -17630,7 +19646,7 @@
         <v>20</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="10"/>
@@ -17716,10 +19732,10 @@
       </c>
     </row>
     <row r="42" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="26"/>
+      <c r="B42" s="33"/>
       <c r="AJ42">
         <v>33099</v>
       </c>
@@ -17812,7 +19828,7 @@
         <v>21</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="13"/>
@@ -17993,10 +20009,10 @@
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="48"/>
       <c r="AJ45">
         <v>33852</v>
       </c>
@@ -18079,10 +20095,10 @@
       </c>
     </row>
     <row r="46" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="35"/>
       <c r="AJ46">
         <v>34103</v>
       </c>
@@ -18165,21 +20181,21 @@
       </c>
     </row>
     <row r="47" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="33"/>
+      <c r="A47" s="46">
+        <v>515</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="51"/>
       <c r="AJ47">
         <v>34354</v>
       </c>
@@ -18258,10 +20274,10 @@
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="38"/>
       <c r="AJ48">
         <v>34605</v>
       </c>
@@ -18496,20 +20512,20 @@
       </c>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="18"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="41"/>
       <c r="AJ51">
         <v>35357</v>
       </c>
@@ -18759,7 +20775,7 @@
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AD54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AJ54">
         <v>36110</v>
@@ -18843,18 +20859,18 @@
         <v>2</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
       <c r="AD55">
         <v>18333</v>
       </c>
@@ -19183,10 +21199,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="21"/>
+      <c r="I59" s="43"/>
       <c r="AJ59">
         <v>37363</v>
       </c>
@@ -19266,10 +21282,10 @@
     </row>
     <row r="60" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="AJ60">
         <v>37614</v>
@@ -19349,15 +21365,15 @@
       </c>
     </row>
     <row r="61" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="22"/>
+      <c r="A61" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="44"/>
       <c r="E61" t="s">
         <v>24</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L61" s="8"/>
       <c r="AJ61">
@@ -19516,15 +21532,15 @@
       </c>
     </row>
     <row r="63" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="45"/>
       <c r="E63" t="s">
         <v>25</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ63">
         <v>38367</v>
@@ -19604,10 +21620,10 @@
       </c>
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="18"/>
+      <c r="A64" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="41"/>
       <c r="AJ64">
         <v>38618</v>
       </c>
@@ -19756,10 +21772,10 @@
       </c>
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="33"/>
       <c r="AJ66">
         <v>39119</v>
       </c>
@@ -19907,10 +21923,10 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AJ68">
         <v>39621</v>
@@ -20052,10 +22068,10 @@
       </c>
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="35"/>
       <c r="AJ70">
         <v>40123</v>
       </c>
@@ -20126,12 +22142,12 @@
       </c>
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A71" s="29">
+      <c r="A71" s="36">
         <v>627</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D71" s="5"/>
       <c r="AJ71">
@@ -20204,10 +22220,10 @@
       </c>
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="38"/>
       <c r="AJ72">
         <v>40625</v>
       </c>
@@ -20418,20 +22434,20 @@
       </c>
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="18"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="41"/>
       <c r="AJ75">
         <v>41377</v>
       </c>
@@ -20730,18 +22746,18 @@
         <v>2</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
       <c r="AJ79">
         <v>42380</v>
       </c>
@@ -20813,7 +22829,7 @@
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.3">
       <c r="AA80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ80">
         <v>42631</v>
@@ -20888,10 +22904,10 @@
       <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="35"/>
+      <c r="E81" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="47"/>
       <c r="AJ81">
         <v>42882</v>
       </c>
@@ -21039,10 +23055,10 @@
       <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="21"/>
+      <c r="I83" s="43"/>
       <c r="AJ83">
         <v>43383</v>
       </c>
@@ -21114,10 +23130,10 @@
     </row>
     <row r="84" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AJ84">
         <v>43634</v>
@@ -21189,23 +23205,23 @@
       </c>
     </row>
     <row r="85" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="22"/>
+      <c r="A85" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="44"/>
       <c r="C85">
         <v>5.3</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="K85" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L85" s="36"/>
+      <c r="K85" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L85" s="37"/>
       <c r="AJ85">
         <v>43885</v>
       </c>
@@ -21346,10 +23362,10 @@
       </c>
     </row>
     <row r="87" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="45"/>
       <c r="AJ87">
         <v>44387</v>
       </c>
@@ -21416,10 +23432,10 @@
       </c>
     </row>
     <row r="88" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="36"/>
+      <c r="A88" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="37"/>
       <c r="C88">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -21517,10 +23533,10 @@
       </c>
     </row>
     <row r="90" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="26"/>
+      <c r="B90" s="33"/>
       <c r="AR90">
         <v>21817</v>
       </c>
@@ -21612,21 +23628,21 @@
     </row>
     <row r="92" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <v>22</v>
       </c>
-      <c r="D92" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
+      <c r="D92" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
       <c r="AR92">
         <v>22318</v>
       </c>
@@ -21711,10 +23727,10 @@
       </c>
     </row>
     <row r="94" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="25"/>
+      <c r="B94" s="35"/>
       <c r="AR94">
         <v>22819</v>
       </c>
@@ -21753,10 +23769,10 @@
       </c>
     </row>
     <row r="95" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A95" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="36"/>
+      <c r="A95" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="37"/>
       <c r="C95">
         <v>497</v>
       </c>
@@ -21798,8 +23814,8 @@
       </c>
     </row>
     <row r="96" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
       <c r="AR96">
         <v>23321</v>
       </c>
@@ -21914,27 +23930,27 @@
       </c>
     </row>
     <row r="99" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
+      <c r="A99" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
       <c r="AR99">
         <v>24074</v>
       </c>
@@ -22011,19 +24027,19 @@
       </c>
     </row>
     <row r="101" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A101" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
+      <c r="A101" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
       <c r="AR101">
         <v>24576</v>
       </c>
@@ -22291,7 +24307,7 @@
     </row>
     <row r="108" spans="1:63" x14ac:dyDescent="0.3">
       <c r="X108" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y108">
         <v>8000</v>
@@ -22418,7 +24434,7 @@
     </row>
     <row r="111" spans="1:63" x14ac:dyDescent="0.3">
       <c r="Z111">
-        <f t="shared" ref="Z111:Z134" si="19">$Y$108</f>
+        <f t="shared" ref="Z111" si="19">$Y$108</f>
         <v>8000</v>
       </c>
       <c r="AA111">
@@ -23024,19 +25040,19 @@
       </c>
     </row>
     <row r="129" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A129" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="44"/>
+      <c r="A129" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="31"/>
       <c r="AY129">
         <v>37617</v>
       </c>
@@ -23070,7 +25086,7 @@
     </row>
     <row r="130" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AY130">
         <v>37868</v>
@@ -23105,7 +25121,7 @@
     </row>
     <row r="131" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AY131">
         <v>38118</v>
@@ -23140,7 +25156,7 @@
     </row>
     <row r="132" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AY132">
         <v>38369</v>
@@ -23175,7 +25191,7 @@
     </row>
     <row r="133" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AY133">
         <v>38620</v>
@@ -23210,7 +25226,7 @@
     </row>
     <row r="134" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AY134">
         <v>38871</v>
@@ -23245,7 +25261,7 @@
     </row>
     <row r="135" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AY135">
         <v>39121</v>
@@ -23279,19 +25295,19 @@
       </c>
     </row>
     <row r="136" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="44"/>
+      <c r="A136" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="31"/>
       <c r="AY136">
         <v>39372</v>
       </c>
@@ -23324,19 +25340,19 @@
       </c>
     </row>
     <row r="137" spans="1:64" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="45"/>
+      <c r="A137" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
       <c r="AY137">
         <v>39623</v>
       </c>
@@ -23369,17 +25385,17 @@
       </c>
     </row>
     <row r="138" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A138" s="46"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="46"/>
-      <c r="K138" s="46"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
       <c r="AY138">
         <v>39874</v>
       </c>
@@ -23412,19 +25428,19 @@
       </c>
     </row>
     <row r="139" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A139" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B139" s="47"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
+      <c r="A139" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
       <c r="AY139">
         <v>40125</v>
       </c>
@@ -23457,26 +25473,8 @@
       </c>
     </row>
     <row r="140" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A140" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48"/>
-      <c r="K140" s="48"/>
-      <c r="L140" s="48"/>
-      <c r="M140" s="48"/>
-      <c r="N140" s="48"/>
-      <c r="O140" s="48"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="49"/>
-      <c r="R140" s="49"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
       <c r="AY140">
         <v>40376</v>
       </c>
@@ -23509,26 +25507,6 @@
       </c>
     </row>
     <row r="141" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
-      <c r="K141" s="50"/>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
-      <c r="N141" s="50"/>
-      <c r="O141" s="50"/>
-      <c r="P141" s="50"/>
-      <c r="Q141" s="50"/>
-      <c r="R141" s="50"/>
       <c r="AY141">
         <v>40627</v>
       </c>
@@ -23561,26 +25539,6 @@
       </c>
     </row>
     <row r="142" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A142" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
-      <c r="J142" s="51"/>
-      <c r="K142" s="51"/>
-      <c r="L142" s="51"/>
-      <c r="M142" s="51"/>
-      <c r="N142" s="51"/>
-      <c r="O142" s="51"/>
-      <c r="P142" s="49"/>
-      <c r="Q142" s="49"/>
-      <c r="R142" s="49"/>
       <c r="AY142">
         <v>40878</v>
       </c>
@@ -23613,26 +25571,23 @@
       </c>
     </row>
     <row r="143" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A143" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="51"/>
-      <c r="J143" s="51"/>
-      <c r="K143" s="51"/>
-      <c r="L143" s="51"/>
-      <c r="M143" s="51"/>
-      <c r="N143" s="51"/>
-      <c r="O143" s="51"/>
-      <c r="P143" s="49"/>
-      <c r="Q143" s="49"/>
-      <c r="R143" s="49"/>
+      <c r="A143" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="52"/>
+      <c r="M143" s="52"/>
+      <c r="N143" s="52"/>
+      <c r="O143" s="52"/>
       <c r="AY143">
         <v>41128</v>
       </c>
@@ -23665,26 +25620,26 @@
       </c>
     </row>
     <row r="144" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A144" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="51"/>
-      <c r="I144" s="51"/>
-      <c r="J144" s="51"/>
-      <c r="K144" s="51"/>
-      <c r="L144" s="51"/>
-      <c r="M144" s="51"/>
-      <c r="N144" s="51"/>
-      <c r="O144" s="51"/>
-      <c r="P144" s="51"/>
-      <c r="Q144" s="49"/>
-      <c r="R144" s="49"/>
+      <c r="A144" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
+      <c r="L144" s="32"/>
+      <c r="M144" s="32"/>
+      <c r="N144" s="32"/>
+      <c r="O144" s="32"/>
+      <c r="P144" s="32"/>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="32"/>
       <c r="AY144">
         <v>41379</v>
       </c>
@@ -23717,24 +25672,26 @@
       </c>
     </row>
     <row r="145" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A145" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="51"/>
-      <c r="I145" s="51"/>
-      <c r="J145" s="51"/>
-      <c r="K145" s="51"/>
-      <c r="L145" s="51"/>
-      <c r="M145" s="51"/>
-      <c r="N145" s="51"/>
-      <c r="O145" s="51"/>
-      <c r="P145" s="51"/>
+      <c r="A145" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="23"/>
+      <c r="O145" s="23"/>
+      <c r="P145" s="23"/>
+      <c r="Q145" s="23"/>
+      <c r="R145" s="23"/>
       <c r="AY145">
         <v>41630</v>
       </c>
@@ -23767,6 +25724,26 @@
       </c>
     </row>
     <row r="146" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A146" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23"/>
+      <c r="O146" s="23"/>
+      <c r="P146" s="23"/>
+      <c r="Q146" s="23"/>
+      <c r="R146" s="23"/>
       <c r="AY146">
         <v>41881</v>
       </c>
@@ -23799,6 +25776,26 @@
       </c>
     </row>
     <row r="147" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A147" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="23"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="23"/>
+      <c r="P147" s="23"/>
+      <c r="Q147" s="23"/>
+      <c r="R147" s="23"/>
       <c r="AY147">
         <v>42132</v>
       </c>
@@ -23831,6 +25828,24 @@
       </c>
     </row>
     <row r="148" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A148" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="23"/>
+      <c r="P148" s="23"/>
       <c r="AY148">
         <v>42382</v>
       </c>
@@ -23991,6 +26006,19 @@
       </c>
     </row>
     <row r="153" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A153" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="53"/>
+      <c r="I153" s="53"/>
+      <c r="J153" s="53"/>
+      <c r="K153" s="53"/>
       <c r="AY153">
         <v>43636</v>
       </c>
@@ -24023,6 +26051,24 @@
       </c>
     </row>
     <row r="154" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A154" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
       <c r="AY154">
         <v>43887</v>
       </c>
@@ -24051,6 +26097,9 @@
       </c>
     </row>
     <row r="155" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>93</v>
+      </c>
       <c r="AY155">
         <v>44138</v>
       </c>
@@ -24073,6 +26122,9 @@
       </c>
     </row>
     <row r="156" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>94</v>
+      </c>
       <c r="AY156">
         <v>44389</v>
       </c>
@@ -24095,6 +26147,9 @@
       </c>
     </row>
     <row r="157" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>96</v>
+      </c>
       <c r="AY157">
         <v>44640</v>
       </c>
@@ -24117,6 +26172,23 @@
       </c>
     </row>
     <row r="158" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A158" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="24"/>
+      <c r="O158" s="24"/>
       <c r="AY158">
         <v>44891</v>
       </c>
@@ -24182,7 +26254,10 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="161" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>97</v>
+      </c>
       <c r="AY161">
         <v>45643</v>
       </c>
@@ -24204,7 +26279,10 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="162" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>98</v>
+      </c>
       <c r="AY162">
         <v>45894</v>
       </c>
@@ -24226,7 +26304,10 @@
         <v>180.75</v>
       </c>
     </row>
-    <row r="163" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>99</v>
+      </c>
       <c r="AY163">
         <v>46145</v>
       </c>
@@ -24248,7 +26329,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>100</v>
+      </c>
       <c r="AY164">
         <v>46396</v>
       </c>
@@ -24270,7 +26354,10 @@
         <v>180.75</v>
       </c>
     </row>
-    <row r="165" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
       <c r="AY165">
         <v>46646</v>
       </c>
@@ -24292,7 +26379,10 @@
         <v>181.25</v>
       </c>
     </row>
-    <row r="166" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>102</v>
+      </c>
       <c r="AY166">
         <v>46897</v>
       </c>
@@ -24310,7 +26400,7 @@
         <v>181.75</v>
       </c>
     </row>
-    <row r="167" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY167">
         <v>47148</v>
       </c>
@@ -24328,7 +26418,7 @@
         <v>181.75</v>
       </c>
     </row>
-    <row r="168" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY168">
         <v>47398</v>
       </c>
@@ -24346,7 +26436,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY169">
         <v>47649</v>
       </c>
@@ -24364,7 +26454,7 @@
         <v>182.25</v>
       </c>
     </row>
-    <row r="170" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY170">
         <v>47900</v>
       </c>
@@ -24382,7 +26472,7 @@
         <v>182.25</v>
       </c>
     </row>
-    <row r="171" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY171">
         <v>48151</v>
       </c>
@@ -24400,7 +26490,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="172" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY172">
         <v>48402</v>
       </c>
@@ -24418,7 +26508,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY173">
         <v>48653</v>
       </c>
@@ -24436,7 +26526,7 @@
         <v>182.75</v>
       </c>
     </row>
-    <row r="174" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY174">
         <v>48904</v>
       </c>
@@ -24454,7 +26544,7 @@
         <v>182.75</v>
       </c>
     </row>
-    <row r="175" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY175">
         <v>49155</v>
       </c>
@@ -24472,7 +26562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AY176">
         <v>49405</v>
       </c>
@@ -24490,7 +26580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:58" x14ac:dyDescent="0.3">
       <c r="AY177">
         <v>49656</v>
       </c>
@@ -24508,7 +26598,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:58" x14ac:dyDescent="0.3">
       <c r="AY178">
         <v>49907</v>
       </c>
@@ -24526,7 +26616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD179">
         <v>55675</v>
       </c>
@@ -24538,7 +26628,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD180">
         <v>55926</v>
       </c>
@@ -24550,7 +26640,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="181" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD181">
         <v>56177</v>
       </c>
@@ -24562,7 +26652,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="182" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD182">
         <v>56428</v>
       </c>
@@ -24574,7 +26664,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="183" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD183">
         <v>56679</v>
       </c>
@@ -24586,7 +26676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD184">
         <v>56930</v>
       </c>
@@ -24598,7 +26688,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="185" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD185">
         <v>57181</v>
       </c>
@@ -24610,7 +26700,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="186" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD186">
         <v>57432</v>
       </c>
@@ -24622,7 +26712,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="187" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD187">
         <v>57682</v>
       </c>
@@ -24634,7 +26724,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="188" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:58" x14ac:dyDescent="0.3">
       <c r="BD188">
         <v>57933</v>
       </c>
@@ -24646,7 +26736,19 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="189" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>103</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>41</v>
+      </c>
       <c r="BD189">
         <v>58184</v>
       </c>
@@ -24658,7 +26760,25 @@
         <v>182.75</v>
       </c>
     </row>
-    <row r="190" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>249</v>
+      </c>
+      <c r="E190">
+        <v>27.25</v>
+      </c>
+      <c r="L190">
+        <v>249</v>
+      </c>
+      <c r="M190" t="s">
+        <v>104</v>
+      </c>
+      <c r="T190">
+        <v>249</v>
+      </c>
+      <c r="U190">
+        <v>41.25</v>
+      </c>
       <c r="BD190">
         <v>58435</v>
       </c>
@@ -24670,7 +26790,25 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="191" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>500</v>
+      </c>
+      <c r="E191">
+        <v>27</v>
+      </c>
+      <c r="L191">
+        <v>500</v>
+      </c>
+      <c r="M191" t="s">
+        <v>105</v>
+      </c>
+      <c r="T191">
+        <v>500</v>
+      </c>
+      <c r="U191">
+        <v>41.25</v>
+      </c>
       <c r="BD191">
         <v>58686</v>
       </c>
@@ -24682,7 +26820,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="51:58" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>751</v>
+      </c>
+      <c r="E192">
+        <v>27.75</v>
+      </c>
+      <c r="L192">
+        <v>751</v>
+      </c>
+      <c r="M192" t="s">
+        <v>104</v>
+      </c>
+      <c r="T192">
+        <v>751</v>
+      </c>
+      <c r="U192">
+        <v>41</v>
+      </c>
       <c r="BD192">
         <v>58936</v>
       </c>
@@ -24694,7 +26850,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="193" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>1002</v>
+      </c>
+      <c r="E193">
+        <v>27.25</v>
+      </c>
+      <c r="L193">
+        <v>1002</v>
+      </c>
+      <c r="M193" t="s">
+        <v>106</v>
+      </c>
+      <c r="T193">
+        <v>1002</v>
+      </c>
+      <c r="U193">
+        <v>41.25</v>
+      </c>
       <c r="BD193">
         <v>59187</v>
       </c>
@@ -24706,7 +26880,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="194" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>1253</v>
+      </c>
+      <c r="E194">
+        <v>27.5</v>
+      </c>
+      <c r="L194">
+        <v>1253</v>
+      </c>
+      <c r="M194" t="s">
+        <v>103</v>
+      </c>
+      <c r="T194">
+        <v>1252</v>
+      </c>
+      <c r="U194">
+        <v>41.25</v>
+      </c>
       <c r="BD194">
         <v>59438</v>
       </c>
@@ -24718,7 +26910,25 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="195" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>1503</v>
+      </c>
+      <c r="E195">
+        <v>27.75</v>
+      </c>
+      <c r="L195">
+        <v>1503</v>
+      </c>
+      <c r="M195" t="s">
+        <v>103</v>
+      </c>
+      <c r="T195">
+        <v>1503</v>
+      </c>
+      <c r="U195">
+        <v>41.25</v>
+      </c>
       <c r="BD195">
         <v>59688</v>
       </c>
@@ -24730,7 +26940,25 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="196" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>1754</v>
+      </c>
+      <c r="E196">
+        <v>27.5</v>
+      </c>
+      <c r="L196">
+        <v>1754</v>
+      </c>
+      <c r="M196" t="s">
+        <v>104</v>
+      </c>
+      <c r="T196">
+        <v>1754</v>
+      </c>
+      <c r="U196">
+        <v>41.5</v>
+      </c>
       <c r="BD196">
         <v>59939</v>
       </c>
@@ -24742,7 +26970,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="197" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>2004</v>
+      </c>
+      <c r="E197">
+        <v>27.75</v>
+      </c>
+      <c r="L197">
+        <v>2004</v>
+      </c>
+      <c r="M197" t="s">
+        <v>104</v>
+      </c>
+      <c r="T197">
+        <v>2004</v>
+      </c>
+      <c r="U197">
+        <v>41.25</v>
+      </c>
       <c r="BD197">
         <v>60190</v>
       </c>
@@ -24754,7 +27000,25 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="198" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>2255</v>
+      </c>
+      <c r="E198">
+        <v>27.5</v>
+      </c>
+      <c r="L198">
+        <v>2255</v>
+      </c>
+      <c r="M198" t="s">
+        <v>103</v>
+      </c>
+      <c r="T198">
+        <v>2255</v>
+      </c>
+      <c r="U198">
+        <v>41.25</v>
+      </c>
       <c r="BD198">
         <v>60441</v>
       </c>
@@ -24766,7 +27030,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>2506</v>
+      </c>
+      <c r="E199">
+        <v>27.5</v>
+      </c>
+      <c r="L199">
+        <v>2506</v>
+      </c>
+      <c r="M199" t="s">
+        <v>104</v>
+      </c>
+      <c r="T199">
+        <v>2506</v>
+      </c>
+      <c r="U199">
+        <v>41</v>
+      </c>
       <c r="BD199">
         <v>60692</v>
       </c>
@@ -24778,7 +27060,25 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="200" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>2757</v>
+      </c>
+      <c r="E200">
+        <v>27.25</v>
+      </c>
+      <c r="L200">
+        <v>2757</v>
+      </c>
+      <c r="M200" t="s">
+        <v>104</v>
+      </c>
+      <c r="T200">
+        <v>2757</v>
+      </c>
+      <c r="U200">
+        <v>41.5</v>
+      </c>
       <c r="BD200">
         <v>60943</v>
       </c>
@@ -24790,7 +27090,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="201" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>3007</v>
+      </c>
+      <c r="E201">
+        <v>27.75</v>
+      </c>
+      <c r="L201">
+        <v>3007</v>
+      </c>
+      <c r="M201" t="s">
+        <v>103</v>
+      </c>
+      <c r="T201">
+        <v>3007</v>
+      </c>
+      <c r="U201">
+        <v>41.25</v>
+      </c>
       <c r="BD201">
         <v>61194</v>
       </c>
@@ -24802,7 +27120,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="202" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>3258</v>
+      </c>
+      <c r="E202">
+        <v>27.25</v>
+      </c>
+      <c r="L202">
+        <v>3258</v>
+      </c>
+      <c r="M202" t="s">
+        <v>104</v>
+      </c>
+      <c r="T202">
+        <v>3258</v>
+      </c>
+      <c r="U202">
+        <v>41.75</v>
+      </c>
       <c r="BD202">
         <v>61445</v>
       </c>
@@ -24814,7 +27150,25 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="203" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>3509</v>
+      </c>
+      <c r="E203">
+        <v>27.25</v>
+      </c>
+      <c r="L203">
+        <v>3509</v>
+      </c>
+      <c r="M203" t="s">
+        <v>106</v>
+      </c>
+      <c r="T203">
+        <v>3509</v>
+      </c>
+      <c r="U203">
+        <v>41.5</v>
+      </c>
       <c r="BD203">
         <v>61696</v>
       </c>
@@ -24826,7 +27180,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="204" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>3760</v>
+      </c>
+      <c r="E204">
+        <v>27.25</v>
+      </c>
+      <c r="L204">
+        <v>3760</v>
+      </c>
+      <c r="M204" t="s">
+        <v>104</v>
+      </c>
+      <c r="T204">
+        <v>3760</v>
+      </c>
+      <c r="U204">
+        <v>41.25</v>
+      </c>
       <c r="BD204">
         <v>61946</v>
       </c>
@@ -24838,7 +27210,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="205" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>4011</v>
+      </c>
+      <c r="E205">
+        <v>27.25</v>
+      </c>
+      <c r="L205">
+        <v>4011</v>
+      </c>
+      <c r="M205" t="s">
+        <v>107</v>
+      </c>
+      <c r="T205">
+        <v>4011</v>
+      </c>
+      <c r="U205">
+        <v>41.5</v>
+      </c>
       <c r="BD205">
         <v>62197</v>
       </c>
@@ -24850,7 +27240,25 @@
         <v>184</v>
       </c>
     </row>
-    <row r="206" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>4261</v>
+      </c>
+      <c r="E206">
+        <v>27.75</v>
+      </c>
+      <c r="L206">
+        <v>4261</v>
+      </c>
+      <c r="M206" t="s">
+        <v>106</v>
+      </c>
+      <c r="T206">
+        <v>4261</v>
+      </c>
+      <c r="U206">
+        <v>41.25</v>
+      </c>
       <c r="BD206">
         <v>62448</v>
       </c>
@@ -24862,7 +27270,25 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="207" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>4512</v>
+      </c>
+      <c r="E207">
+        <v>27.25</v>
+      </c>
+      <c r="L207">
+        <v>4512</v>
+      </c>
+      <c r="M207" t="s">
+        <v>106</v>
+      </c>
+      <c r="T207">
+        <v>4512</v>
+      </c>
+      <c r="U207">
+        <v>41</v>
+      </c>
       <c r="BD207">
         <v>62699</v>
       </c>
@@ -24874,7 +27300,25 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="208" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>4762</v>
+      </c>
+      <c r="E208">
+        <v>27</v>
+      </c>
+      <c r="L208">
+        <v>4762</v>
+      </c>
+      <c r="M208" t="s">
+        <v>104</v>
+      </c>
+      <c r="T208">
+        <v>4762</v>
+      </c>
+      <c r="U208">
+        <v>42</v>
+      </c>
       <c r="BD208">
         <v>62950</v>
       </c>
@@ -24886,7 +27330,29 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="209" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>5013</v>
+      </c>
+      <c r="E209">
+        <v>27.75</v>
+      </c>
+      <c r="L209">
+        <v>5013</v>
+      </c>
+      <c r="M209" t="s">
+        <v>103</v>
+      </c>
+      <c r="T209">
+        <v>5013</v>
+      </c>
+      <c r="U209">
+        <v>45.75</v>
+      </c>
+      <c r="V209">
+        <f>T209-4800</f>
+        <v>213</v>
+      </c>
       <c r="BD209">
         <v>63200</v>
       </c>
@@ -24898,7 +27364,29 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>5264</v>
+      </c>
+      <c r="E210">
+        <v>27.5</v>
+      </c>
+      <c r="L210">
+        <v>5264</v>
+      </c>
+      <c r="M210" t="s">
+        <v>106</v>
+      </c>
+      <c r="T210">
+        <v>5264</v>
+      </c>
+      <c r="U210">
+        <v>53</v>
+      </c>
+      <c r="V210">
+        <f t="shared" ref="V210:V273" si="25">T210-4800</f>
+        <v>464</v>
+      </c>
       <c r="BD210">
         <v>63451</v>
       </c>
@@ -24910,7 +27398,29 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="211" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>5515</v>
+      </c>
+      <c r="E211">
+        <v>27.5</v>
+      </c>
+      <c r="L211">
+        <v>5515</v>
+      </c>
+      <c r="M211" t="s">
+        <v>106</v>
+      </c>
+      <c r="T211">
+        <v>5515</v>
+      </c>
+      <c r="U211">
+        <v>61.75</v>
+      </c>
+      <c r="V211">
+        <f t="shared" si="25"/>
+        <v>715</v>
+      </c>
       <c r="BD211">
         <v>63702</v>
       </c>
@@ -24922,7 +27432,29 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="212" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>5766</v>
+      </c>
+      <c r="E212">
+        <v>27.5</v>
+      </c>
+      <c r="L212">
+        <v>5766</v>
+      </c>
+      <c r="M212" t="s">
+        <v>105</v>
+      </c>
+      <c r="T212">
+        <v>5766</v>
+      </c>
+      <c r="U212">
+        <v>70.75</v>
+      </c>
+      <c r="V212">
+        <f t="shared" si="25"/>
+        <v>966</v>
+      </c>
       <c r="BD212">
         <v>63952</v>
       </c>
@@ -24934,7 +27466,29 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="213" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>6017</v>
+      </c>
+      <c r="E213">
+        <v>27.25</v>
+      </c>
+      <c r="L213">
+        <v>6017</v>
+      </c>
+      <c r="M213" t="s">
+        <v>103</v>
+      </c>
+      <c r="T213">
+        <v>6017</v>
+      </c>
+      <c r="U213">
+        <v>80</v>
+      </c>
+      <c r="V213">
+        <f t="shared" si="25"/>
+        <v>1217</v>
+      </c>
       <c r="BD213">
         <v>64203</v>
       </c>
@@ -24946,7 +27500,29 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="214" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>6267</v>
+      </c>
+      <c r="E214">
+        <v>27.5</v>
+      </c>
+      <c r="L214">
+        <v>6267</v>
+      </c>
+      <c r="M214" t="s">
+        <v>106</v>
+      </c>
+      <c r="T214">
+        <v>6267</v>
+      </c>
+      <c r="U214">
+        <v>87.5</v>
+      </c>
+      <c r="V214">
+        <f t="shared" si="25"/>
+        <v>1467</v>
+      </c>
       <c r="BD214">
         <v>64454</v>
       </c>
@@ -24958,7 +27534,33 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="215" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>6517</v>
+      </c>
+      <c r="E215">
+        <v>27.5</v>
+      </c>
+      <c r="F215">
+        <f>D215-6400</f>
+        <v>117</v>
+      </c>
+      <c r="L215">
+        <v>6517</v>
+      </c>
+      <c r="M215" t="s">
+        <v>103</v>
+      </c>
+      <c r="T215">
+        <v>6517</v>
+      </c>
+      <c r="U215">
+        <v>94.5</v>
+      </c>
+      <c r="V215">
+        <f t="shared" si="25"/>
+        <v>1717</v>
+      </c>
       <c r="BD215">
         <v>64705</v>
       </c>
@@ -24970,7 +27572,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="216" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>6768</v>
+      </c>
+      <c r="E216">
+        <v>30.75</v>
+      </c>
+      <c r="F216">
+        <f t="shared" ref="F216:F279" si="26">D216-6400</f>
+        <v>368</v>
+      </c>
+      <c r="L216">
+        <v>6768</v>
+      </c>
+      <c r="M216" t="s">
+        <v>103</v>
+      </c>
+      <c r="T216">
+        <v>6768</v>
+      </c>
+      <c r="U216">
+        <v>100.25</v>
+      </c>
+      <c r="V216">
+        <f t="shared" si="25"/>
+        <v>1968</v>
+      </c>
       <c r="BD216">
         <v>64956</v>
       </c>
@@ -24982,7 +27610,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>7019</v>
+      </c>
+      <c r="E217">
+        <v>36.5</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="26"/>
+        <v>619</v>
+      </c>
+      <c r="L217">
+        <v>7019</v>
+      </c>
+      <c r="M217" t="s">
+        <v>104</v>
+      </c>
+      <c r="T217">
+        <v>7019</v>
+      </c>
+      <c r="U217">
+        <v>105.5</v>
+      </c>
+      <c r="V217">
+        <f t="shared" si="25"/>
+        <v>2219</v>
+      </c>
       <c r="BD217">
         <v>65207</v>
       </c>
@@ -24994,7 +27648,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="218" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>7270</v>
+      </c>
+      <c r="E218">
+        <v>46.75</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="26"/>
+        <v>870</v>
+      </c>
+      <c r="L218">
+        <v>7270</v>
+      </c>
+      <c r="M218" t="s">
+        <v>103</v>
+      </c>
+      <c r="T218">
+        <v>7270</v>
+      </c>
+      <c r="U218">
+        <v>109.75</v>
+      </c>
+      <c r="V218">
+        <f t="shared" si="25"/>
+        <v>2470</v>
+      </c>
       <c r="BD218">
         <v>65458</v>
       </c>
@@ -25006,7 +27686,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="219" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>7521</v>
+      </c>
+      <c r="E219">
+        <v>59</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="26"/>
+        <v>1121</v>
+      </c>
+      <c r="L219">
+        <v>7521</v>
+      </c>
+      <c r="M219" t="s">
+        <v>104</v>
+      </c>
+      <c r="T219">
+        <v>7521</v>
+      </c>
+      <c r="U219">
+        <v>113.5</v>
+      </c>
+      <c r="V219">
+        <f t="shared" si="25"/>
+        <v>2721</v>
+      </c>
       <c r="BD219">
         <v>65709</v>
       </c>
@@ -25018,7 +27724,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>7772</v>
+      </c>
+      <c r="E220">
+        <v>69.25</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="26"/>
+        <v>1372</v>
+      </c>
+      <c r="L220">
+        <v>7772</v>
+      </c>
+      <c r="M220" t="s">
+        <v>103</v>
+      </c>
+      <c r="T220">
+        <v>7772</v>
+      </c>
+      <c r="U220">
+        <v>117.25</v>
+      </c>
+      <c r="V220">
+        <f t="shared" si="25"/>
+        <v>2972</v>
+      </c>
       <c r="BD220">
         <v>65959</v>
       </c>
@@ -25030,7 +27762,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>8023</v>
+      </c>
+      <c r="E221">
+        <v>76.75</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="26"/>
+        <v>1623</v>
+      </c>
+      <c r="L221">
+        <v>8022</v>
+      </c>
+      <c r="M221" t="s">
+        <v>104</v>
+      </c>
+      <c r="T221">
+        <v>8023</v>
+      </c>
+      <c r="U221">
+        <v>120.25</v>
+      </c>
+      <c r="V221">
+        <f t="shared" si="25"/>
+        <v>3223</v>
+      </c>
       <c r="BD221">
         <v>66210</v>
       </c>
@@ -25042,7 +27800,33 @@
         <v>183.75</v>
       </c>
     </row>
-    <row r="222" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>8272</v>
+      </c>
+      <c r="E222">
+        <v>83.5</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="26"/>
+        <v>1872</v>
+      </c>
+      <c r="L222">
+        <v>8272</v>
+      </c>
+      <c r="M222" t="s">
+        <v>106</v>
+      </c>
+      <c r="T222">
+        <v>8273</v>
+      </c>
+      <c r="U222">
+        <v>123</v>
+      </c>
+      <c r="V222">
+        <f t="shared" si="25"/>
+        <v>3473</v>
+      </c>
       <c r="BD222">
         <v>66461</v>
       </c>
@@ -25054,7 +27838,37 @@
         <v>183.5</v>
       </c>
     </row>
-    <row r="223" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>8523</v>
+      </c>
+      <c r="E223">
+        <v>89</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="26"/>
+        <v>2123</v>
+      </c>
+      <c r="L223">
+        <v>8523</v>
+      </c>
+      <c r="M223">
+        <v>28.25</v>
+      </c>
+      <c r="N223">
+        <f>L223-8200</f>
+        <v>323</v>
+      </c>
+      <c r="T223">
+        <v>8524</v>
+      </c>
+      <c r="U223">
+        <v>126</v>
+      </c>
+      <c r="V223">
+        <f t="shared" si="25"/>
+        <v>3724</v>
+      </c>
       <c r="BD223">
         <v>66712</v>
       </c>
@@ -25066,7 +27880,37 @@
         <v>184.25</v>
       </c>
     </row>
-    <row r="224" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>8774</v>
+      </c>
+      <c r="E224">
+        <v>94</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="26"/>
+        <v>2374</v>
+      </c>
+      <c r="L224">
+        <v>8774</v>
+      </c>
+      <c r="M224">
+        <v>29.75</v>
+      </c>
+      <c r="N224">
+        <f>L224-8200</f>
+        <v>574</v>
+      </c>
+      <c r="T224">
+        <v>8774</v>
+      </c>
+      <c r="U224">
+        <v>128.25</v>
+      </c>
+      <c r="V224">
+        <f t="shared" si="25"/>
+        <v>3974</v>
+      </c>
       <c r="BD224">
         <v>66963</v>
       </c>
@@ -25078,7 +27922,37 @@
         <v>184</v>
       </c>
     </row>
-    <row r="225" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>9025</v>
+      </c>
+      <c r="E225">
+        <v>98.25</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="26"/>
+        <v>2625</v>
+      </c>
+      <c r="L225">
+        <v>9025</v>
+      </c>
+      <c r="M225">
+        <v>32.75</v>
+      </c>
+      <c r="N225">
+        <f t="shared" ref="N225:N288" si="27">L225-8200</f>
+        <v>825</v>
+      </c>
+      <c r="T225">
+        <v>9025</v>
+      </c>
+      <c r="U225">
+        <v>130.5</v>
+      </c>
+      <c r="V225">
+        <f t="shared" si="25"/>
+        <v>4225</v>
+      </c>
       <c r="BD225">
         <v>67214</v>
       </c>
@@ -25090,7 +27964,37 @@
         <v>182.75</v>
       </c>
     </row>
-    <row r="226" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>9276</v>
+      </c>
+      <c r="E226">
+        <v>101.5</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="26"/>
+        <v>2876</v>
+      </c>
+      <c r="L226">
+        <v>9276</v>
+      </c>
+      <c r="M226">
+        <v>38</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="27"/>
+        <v>1076</v>
+      </c>
+      <c r="T226">
+        <v>9276</v>
+      </c>
+      <c r="U226">
+        <v>132.75</v>
+      </c>
+      <c r="V226">
+        <f t="shared" si="25"/>
+        <v>4476</v>
+      </c>
       <c r="BD226">
         <v>67464</v>
       </c>
@@ -25102,7 +28006,37 @@
         <v>180.25</v>
       </c>
     </row>
-    <row r="227" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>9527</v>
+      </c>
+      <c r="E227">
+        <v>104.75</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="26"/>
+        <v>3127</v>
+      </c>
+      <c r="L227">
+        <v>9527</v>
+      </c>
+      <c r="M227">
+        <v>42.75</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="27"/>
+        <v>1327</v>
+      </c>
+      <c r="T227">
+        <v>9527</v>
+      </c>
+      <c r="U227">
+        <v>134.5</v>
+      </c>
+      <c r="V227">
+        <f t="shared" si="25"/>
+        <v>4727</v>
+      </c>
       <c r="BD227">
         <v>67715</v>
       </c>
@@ -25114,7 +28048,37 @@
         <v>177</v>
       </c>
     </row>
-    <row r="228" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>9778</v>
+      </c>
+      <c r="E228">
+        <v>106.25</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="26"/>
+        <v>3378</v>
+      </c>
+      <c r="L228">
+        <v>9777</v>
+      </c>
+      <c r="M228">
+        <v>49.25</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="27"/>
+        <v>1577</v>
+      </c>
+      <c r="T228">
+        <v>9778</v>
+      </c>
+      <c r="U228">
+        <v>136.75</v>
+      </c>
+      <c r="V228">
+        <f t="shared" si="25"/>
+        <v>4978</v>
+      </c>
       <c r="BD228">
         <v>67965</v>
       </c>
@@ -25126,7 +28090,37 @@
         <v>173.25</v>
       </c>
     </row>
-    <row r="229" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>10028</v>
+      </c>
+      <c r="E229">
+        <v>106.5</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="26"/>
+        <v>3628</v>
+      </c>
+      <c r="L229">
+        <v>10028</v>
+      </c>
+      <c r="M229">
+        <v>55</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="27"/>
+        <v>1828</v>
+      </c>
+      <c r="T229">
+        <v>10029</v>
+      </c>
+      <c r="U229">
+        <v>138.25</v>
+      </c>
+      <c r="V229">
+        <f t="shared" si="25"/>
+        <v>5229</v>
+      </c>
       <c r="BD229">
         <v>68216</v>
       </c>
@@ -25138,7 +28132,37 @@
         <v>169.25</v>
       </c>
     </row>
-    <row r="230" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>10278</v>
+      </c>
+      <c r="E230">
+        <v>109.25</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="26"/>
+        <v>3878</v>
+      </c>
+      <c r="L230">
+        <v>10278</v>
+      </c>
+      <c r="M230">
+        <v>60.75</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="27"/>
+        <v>2078</v>
+      </c>
+      <c r="T230">
+        <v>10279</v>
+      </c>
+      <c r="U230">
+        <v>139.75</v>
+      </c>
+      <c r="V230">
+        <f t="shared" si="25"/>
+        <v>5479</v>
+      </c>
       <c r="BD230">
         <v>68467</v>
       </c>
@@ -25150,7 +28174,37 @@
         <v>165.25</v>
       </c>
     </row>
-    <row r="231" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>10529</v>
+      </c>
+      <c r="E231">
+        <v>111.5</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="26"/>
+        <v>4129</v>
+      </c>
+      <c r="L231">
+        <v>10529</v>
+      </c>
+      <c r="M231">
+        <v>66</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="27"/>
+        <v>2329</v>
+      </c>
+      <c r="T231">
+        <v>10530</v>
+      </c>
+      <c r="U231">
+        <v>141</v>
+      </c>
+      <c r="V231">
+        <f t="shared" si="25"/>
+        <v>5730</v>
+      </c>
       <c r="BD231">
         <v>68718</v>
       </c>
@@ -25162,7 +28216,37 @@
         <v>160.75</v>
       </c>
     </row>
-    <row r="232" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>10780</v>
+      </c>
+      <c r="E232">
+        <v>113</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="26"/>
+        <v>4380</v>
+      </c>
+      <c r="L232">
+        <v>10780</v>
+      </c>
+      <c r="M232">
+        <v>71.5</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="27"/>
+        <v>2580</v>
+      </c>
+      <c r="T232">
+        <v>10781</v>
+      </c>
+      <c r="U232">
+        <v>142.75</v>
+      </c>
+      <c r="V232">
+        <f t="shared" si="25"/>
+        <v>5981</v>
+      </c>
       <c r="BD232">
         <v>68969</v>
       </c>
@@ -25174,7 +28258,37 @@
         <v>157.25</v>
       </c>
     </row>
-    <row r="233" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>11031</v>
+      </c>
+      <c r="E233">
+        <v>114.5</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="26"/>
+        <v>4631</v>
+      </c>
+      <c r="L233">
+        <v>11031</v>
+      </c>
+      <c r="M233">
+        <v>77</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="27"/>
+        <v>2831</v>
+      </c>
+      <c r="T233">
+        <v>11032</v>
+      </c>
+      <c r="U233">
+        <v>144.25</v>
+      </c>
+      <c r="V233">
+        <f t="shared" si="25"/>
+        <v>6232</v>
+      </c>
       <c r="BD233">
         <v>69220</v>
       </c>
@@ -25186,7 +28300,37 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="234" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>11282</v>
+      </c>
+      <c r="E234">
+        <v>114.75</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="26"/>
+        <v>4882</v>
+      </c>
+      <c r="L234">
+        <v>11282</v>
+      </c>
+      <c r="M234">
+        <v>82.25</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="27"/>
+        <v>3082</v>
+      </c>
+      <c r="T234">
+        <v>11283</v>
+      </c>
+      <c r="U234">
+        <v>145.5</v>
+      </c>
+      <c r="V234">
+        <f t="shared" si="25"/>
+        <v>6483</v>
+      </c>
       <c r="BD234">
         <v>69471</v>
       </c>
@@ -25198,7 +28342,37 @@
         <v>150.75</v>
       </c>
     </row>
-    <row r="235" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>11533</v>
+      </c>
+      <c r="E235">
+        <v>115</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="26"/>
+        <v>5133</v>
+      </c>
+      <c r="L235">
+        <v>11533</v>
+      </c>
+      <c r="M235">
+        <v>87.25</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="27"/>
+        <v>3333</v>
+      </c>
+      <c r="T235">
+        <v>11534</v>
+      </c>
+      <c r="U235">
+        <v>147.25</v>
+      </c>
+      <c r="V235">
+        <f t="shared" si="25"/>
+        <v>6734</v>
+      </c>
       <c r="BD235">
         <v>69722</v>
       </c>
@@ -25210,7 +28384,37 @@
         <v>147.25</v>
       </c>
     </row>
-    <row r="236" spans="56:58" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>11784</v>
+      </c>
+      <c r="E236">
+        <v>115</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="26"/>
+        <v>5384</v>
+      </c>
+      <c r="L236">
+        <v>11784</v>
+      </c>
+      <c r="M236">
+        <v>91.5</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="27"/>
+        <v>3584</v>
+      </c>
+      <c r="T236">
+        <v>11784</v>
+      </c>
+      <c r="U236">
+        <v>148.5</v>
+      </c>
+      <c r="V236">
+        <f t="shared" si="25"/>
+        <v>6984</v>
+      </c>
       <c r="BD236">
         <v>69972</v>
       </c>
@@ -25222,32 +28426,2605 @@
         <v>144.5</v>
       </c>
     </row>
+    <row r="237" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>12035</v>
+      </c>
+      <c r="E237">
+        <v>115</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="26"/>
+        <v>5635</v>
+      </c>
+      <c r="L237">
+        <v>12034</v>
+      </c>
+      <c r="M237">
+        <v>95.5</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="27"/>
+        <v>3834</v>
+      </c>
+      <c r="T237">
+        <v>12035</v>
+      </c>
+      <c r="U237">
+        <v>149.5</v>
+      </c>
+      <c r="V237">
+        <f t="shared" si="25"/>
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="238" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>12285</v>
+      </c>
+      <c r="E238">
+        <v>115.25</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="26"/>
+        <v>5885</v>
+      </c>
+      <c r="L238">
+        <v>12284</v>
+      </c>
+      <c r="M238">
+        <v>98.5</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="27"/>
+        <v>4084</v>
+      </c>
+      <c r="T238">
+        <v>12285</v>
+      </c>
+      <c r="U238">
+        <v>150.5</v>
+      </c>
+      <c r="V238">
+        <f t="shared" si="25"/>
+        <v>7485</v>
+      </c>
+    </row>
+    <row r="239" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>12536</v>
+      </c>
+      <c r="E239">
+        <v>114</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="26"/>
+        <v>6136</v>
+      </c>
+      <c r="L239">
+        <v>12535</v>
+      </c>
+      <c r="M239">
+        <v>101.75</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="27"/>
+        <v>4335</v>
+      </c>
+      <c r="T239">
+        <v>12536</v>
+      </c>
+      <c r="U239">
+        <v>151.5</v>
+      </c>
+      <c r="V239">
+        <f t="shared" si="25"/>
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="240" spans="4:58" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>12787</v>
+      </c>
+      <c r="E240">
+        <v>113.5</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="26"/>
+        <v>6387</v>
+      </c>
+      <c r="L240">
+        <v>12786</v>
+      </c>
+      <c r="M240">
+        <v>104.25</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="27"/>
+        <v>4586</v>
+      </c>
+      <c r="T240">
+        <v>12787</v>
+      </c>
+      <c r="U240">
+        <v>152.5</v>
+      </c>
+      <c r="V240">
+        <f t="shared" si="25"/>
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="241" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>13038</v>
+      </c>
+      <c r="E241">
+        <v>112.75</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="26"/>
+        <v>6638</v>
+      </c>
+      <c r="L241">
+        <v>13037</v>
+      </c>
+      <c r="M241">
+        <v>106.25</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="27"/>
+        <v>4837</v>
+      </c>
+      <c r="T241">
+        <v>13038</v>
+      </c>
+      <c r="U241">
+        <v>152.5</v>
+      </c>
+      <c r="V241">
+        <f t="shared" si="25"/>
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="242" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>13289</v>
+      </c>
+      <c r="E242">
+        <v>112.25</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="26"/>
+        <v>6889</v>
+      </c>
+      <c r="L242">
+        <v>13288</v>
+      </c>
+      <c r="M242">
+        <v>107.75</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="27"/>
+        <v>5088</v>
+      </c>
+      <c r="T242">
+        <v>13289</v>
+      </c>
+      <c r="U242">
+        <v>152.75</v>
+      </c>
+      <c r="V242">
+        <f t="shared" si="25"/>
+        <v>8489</v>
+      </c>
+    </row>
+    <row r="243" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>13540</v>
+      </c>
+      <c r="E243">
+        <v>111.5</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="26"/>
+        <v>7140</v>
+      </c>
+      <c r="L243">
+        <v>13539</v>
+      </c>
+      <c r="M243">
+        <v>109.25</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="27"/>
+        <v>5339</v>
+      </c>
+      <c r="T243">
+        <v>13540</v>
+      </c>
+      <c r="U243">
+        <v>152</v>
+      </c>
+      <c r="V243">
+        <f t="shared" si="25"/>
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="244" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>13791</v>
+      </c>
+      <c r="E244">
+        <v>110.75</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="26"/>
+        <v>7391</v>
+      </c>
+      <c r="L244">
+        <v>13790</v>
+      </c>
+      <c r="M244">
+        <v>110.25</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="27"/>
+        <v>5590</v>
+      </c>
+      <c r="T244">
+        <v>13791</v>
+      </c>
+      <c r="U244">
+        <v>150.75</v>
+      </c>
+      <c r="V244">
+        <f t="shared" si="25"/>
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="245" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>14042</v>
+      </c>
+      <c r="E245">
+        <v>109.75</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="26"/>
+        <v>7642</v>
+      </c>
+      <c r="L245">
+        <v>14041</v>
+      </c>
+      <c r="M245">
+        <v>110.5</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="27"/>
+        <v>5841</v>
+      </c>
+      <c r="T245">
+        <v>14042</v>
+      </c>
+      <c r="U245">
+        <v>149.25</v>
+      </c>
+      <c r="V245">
+        <f t="shared" si="25"/>
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="246" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>14291</v>
+      </c>
+      <c r="E246">
+        <v>108</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="26"/>
+        <v>7891</v>
+      </c>
+      <c r="L246">
+        <v>14291</v>
+      </c>
+      <c r="M246">
+        <v>111.25</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="27"/>
+        <v>6091</v>
+      </c>
+      <c r="T246">
+        <v>14292</v>
+      </c>
+      <c r="U246">
+        <v>146.75</v>
+      </c>
+      <c r="V246">
+        <f t="shared" si="25"/>
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="247" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>14542</v>
+      </c>
+      <c r="E247">
+        <v>106.75</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="26"/>
+        <v>8142</v>
+      </c>
+      <c r="L247">
+        <v>14542</v>
+      </c>
+      <c r="M247">
+        <v>111.5</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="27"/>
+        <v>6342</v>
+      </c>
+      <c r="T247">
+        <v>14543</v>
+      </c>
+      <c r="U247">
+        <v>145</v>
+      </c>
+      <c r="V247">
+        <f t="shared" si="25"/>
+        <v>9743</v>
+      </c>
+    </row>
+    <row r="248" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>14793</v>
+      </c>
+      <c r="E248">
+        <v>105.25</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="26"/>
+        <v>8393</v>
+      </c>
+      <c r="L248">
+        <v>14793</v>
+      </c>
+      <c r="M248">
+        <v>111.75</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="27"/>
+        <v>6593</v>
+      </c>
+      <c r="T248">
+        <v>14794</v>
+      </c>
+      <c r="U248">
+        <v>143</v>
+      </c>
+      <c r="V248">
+        <f t="shared" si="25"/>
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="249" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>15044</v>
+      </c>
+      <c r="E249">
+        <v>103.5</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="26"/>
+        <v>8644</v>
+      </c>
+      <c r="L249">
+        <v>15044</v>
+      </c>
+      <c r="M249">
+        <v>112.25</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="27"/>
+        <v>6844</v>
+      </c>
+      <c r="T249">
+        <v>15045</v>
+      </c>
+      <c r="U249">
+        <v>140.25</v>
+      </c>
+      <c r="V249">
+        <f t="shared" si="25"/>
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="250" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>15295</v>
+      </c>
+      <c r="E250">
+        <v>102</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="26"/>
+        <v>8895</v>
+      </c>
+      <c r="L250">
+        <v>15295</v>
+      </c>
+      <c r="M250">
+        <v>112</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="27"/>
+        <v>7095</v>
+      </c>
+      <c r="T250">
+        <v>15296</v>
+      </c>
+      <c r="U250">
+        <v>138.25</v>
+      </c>
+      <c r="V250">
+        <f t="shared" si="25"/>
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="251" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>15546</v>
+      </c>
+      <c r="E251">
+        <v>100.5</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="26"/>
+        <v>9146</v>
+      </c>
+      <c r="L251">
+        <v>15546</v>
+      </c>
+      <c r="M251">
+        <v>111.75</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="27"/>
+        <v>7346</v>
+      </c>
+      <c r="T251">
+        <v>15547</v>
+      </c>
+      <c r="U251">
+        <v>136.25</v>
+      </c>
+      <c r="V251">
+        <f t="shared" si="25"/>
+        <v>10747</v>
+      </c>
+    </row>
+    <row r="252" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>15797</v>
+      </c>
+      <c r="E252">
+        <v>99.25</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="26"/>
+        <v>9397</v>
+      </c>
+      <c r="L252">
+        <v>15797</v>
+      </c>
+      <c r="M252">
+        <v>112</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="27"/>
+        <v>7597</v>
+      </c>
+      <c r="T252">
+        <v>15798</v>
+      </c>
+      <c r="U252">
+        <v>134</v>
+      </c>
+      <c r="V252">
+        <f t="shared" si="25"/>
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="253" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>16048</v>
+      </c>
+      <c r="E253">
+        <v>97.75</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="26"/>
+        <v>9648</v>
+      </c>
+      <c r="L253">
+        <v>16047</v>
+      </c>
+      <c r="M253">
+        <v>111</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="27"/>
+        <v>7847</v>
+      </c>
+      <c r="T253">
+        <v>16048</v>
+      </c>
+      <c r="U253">
+        <v>132.25</v>
+      </c>
+      <c r="V253">
+        <f t="shared" si="25"/>
+        <v>11248</v>
+      </c>
+    </row>
+    <row r="254" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>16299</v>
+      </c>
+      <c r="E254">
+        <v>96.75</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="26"/>
+        <v>9899</v>
+      </c>
+      <c r="L254">
+        <v>16297</v>
+      </c>
+      <c r="M254">
+        <v>111</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="27"/>
+        <v>8097</v>
+      </c>
+      <c r="T254">
+        <v>16299</v>
+      </c>
+      <c r="U254">
+        <v>129.75</v>
+      </c>
+      <c r="V254">
+        <f t="shared" si="25"/>
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="255" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>16549</v>
+      </c>
+      <c r="E255">
+        <v>95.5</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="26"/>
+        <v>10149</v>
+      </c>
+      <c r="L255">
+        <v>16548</v>
+      </c>
+      <c r="M255">
+        <v>110.5</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="27"/>
+        <v>8348</v>
+      </c>
+      <c r="T255">
+        <v>16549</v>
+      </c>
+      <c r="U255">
+        <v>128.75</v>
+      </c>
+      <c r="V255">
+        <f t="shared" si="25"/>
+        <v>11749</v>
+      </c>
+    </row>
+    <row r="256" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>16800</v>
+      </c>
+      <c r="E256">
+        <v>94.75</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="26"/>
+        <v>10400</v>
+      </c>
+      <c r="L256">
+        <v>16799</v>
+      </c>
+      <c r="M256">
+        <v>109.75</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="27"/>
+        <v>8599</v>
+      </c>
+      <c r="T256">
+        <v>16800</v>
+      </c>
+      <c r="U256">
+        <v>127.25</v>
+      </c>
+      <c r="V256">
+        <f t="shared" si="25"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="257" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>17051</v>
+      </c>
+      <c r="E257">
+        <v>93.75</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="26"/>
+        <v>10651</v>
+      </c>
+      <c r="L257">
+        <v>17050</v>
+      </c>
+      <c r="M257">
+        <v>109.25</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="27"/>
+        <v>8850</v>
+      </c>
+      <c r="T257">
+        <v>17051</v>
+      </c>
+      <c r="U257">
+        <v>125.5</v>
+      </c>
+      <c r="V257">
+        <f t="shared" si="25"/>
+        <v>12251</v>
+      </c>
+    </row>
+    <row r="258" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>17302</v>
+      </c>
+      <c r="E258">
+        <v>92.5</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="26"/>
+        <v>10902</v>
+      </c>
+      <c r="L258">
+        <v>17301</v>
+      </c>
+      <c r="M258">
+        <v>108.5</v>
+      </c>
+      <c r="N258">
+        <f t="shared" si="27"/>
+        <v>9101</v>
+      </c>
+      <c r="T258">
+        <v>17302</v>
+      </c>
+      <c r="U258">
+        <v>124</v>
+      </c>
+      <c r="V258">
+        <f t="shared" si="25"/>
+        <v>12502</v>
+      </c>
+    </row>
+    <row r="259" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>17552</v>
+      </c>
+      <c r="E259">
+        <v>91.75</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="26"/>
+        <v>11152</v>
+      </c>
+      <c r="L259">
+        <v>17552</v>
+      </c>
+      <c r="M259">
+        <v>108</v>
+      </c>
+      <c r="N259">
+        <f t="shared" si="27"/>
+        <v>9352</v>
+      </c>
+      <c r="T259">
+        <v>17553</v>
+      </c>
+      <c r="U259">
+        <v>123</v>
+      </c>
+      <c r="V259">
+        <f t="shared" si="25"/>
+        <v>12753</v>
+      </c>
+    </row>
+    <row r="260" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>17803</v>
+      </c>
+      <c r="E260">
+        <v>90.75</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="26"/>
+        <v>11403</v>
+      </c>
+      <c r="L260">
+        <v>17803</v>
+      </c>
+      <c r="M260">
+        <v>107</v>
+      </c>
+      <c r="N260">
+        <f t="shared" si="27"/>
+        <v>9603</v>
+      </c>
+      <c r="T260">
+        <v>17804</v>
+      </c>
+      <c r="U260">
+        <v>121.75</v>
+      </c>
+      <c r="V260">
+        <f t="shared" si="25"/>
+        <v>13004</v>
+      </c>
+    </row>
+    <row r="261" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>18054</v>
+      </c>
+      <c r="E261">
+        <v>90</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="26"/>
+        <v>11654</v>
+      </c>
+      <c r="L261">
+        <v>18054</v>
+      </c>
+      <c r="M261">
+        <v>106.25</v>
+      </c>
+      <c r="N261">
+        <f t="shared" si="27"/>
+        <v>9854</v>
+      </c>
+      <c r="T261">
+        <v>18055</v>
+      </c>
+      <c r="U261">
+        <v>120.75</v>
+      </c>
+      <c r="V261">
+        <f t="shared" si="25"/>
+        <v>13255</v>
+      </c>
+    </row>
+    <row r="262" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>18305</v>
+      </c>
+      <c r="E262">
+        <v>89.5</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="26"/>
+        <v>11905</v>
+      </c>
+      <c r="L262">
+        <v>18305</v>
+      </c>
+      <c r="M262">
+        <v>105.5</v>
+      </c>
+      <c r="N262">
+        <f t="shared" si="27"/>
+        <v>10105</v>
+      </c>
+      <c r="T262">
+        <v>18306</v>
+      </c>
+      <c r="U262">
+        <v>119.75</v>
+      </c>
+      <c r="V262">
+        <f t="shared" si="25"/>
+        <v>13506</v>
+      </c>
+    </row>
+    <row r="263" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>18555</v>
+      </c>
+      <c r="E263">
+        <v>88.75</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="26"/>
+        <v>12155</v>
+      </c>
+      <c r="L263">
+        <v>18555</v>
+      </c>
+      <c r="M263">
+        <v>104.25</v>
+      </c>
+      <c r="N263">
+        <f t="shared" si="27"/>
+        <v>10355</v>
+      </c>
+      <c r="T263">
+        <v>18556</v>
+      </c>
+      <c r="U263">
+        <v>118.75</v>
+      </c>
+      <c r="V263">
+        <f t="shared" si="25"/>
+        <v>13756</v>
+      </c>
+    </row>
+    <row r="264" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>18806</v>
+      </c>
+      <c r="E264">
+        <v>88.5</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="26"/>
+        <v>12406</v>
+      </c>
+      <c r="L264">
+        <v>18806</v>
+      </c>
+      <c r="M264">
+        <v>103.75</v>
+      </c>
+      <c r="N264">
+        <f t="shared" si="27"/>
+        <v>10606</v>
+      </c>
+      <c r="T264">
+        <v>18807</v>
+      </c>
+      <c r="U264">
+        <v>118</v>
+      </c>
+      <c r="V264">
+        <f t="shared" si="25"/>
+        <v>14007</v>
+      </c>
+    </row>
+    <row r="265" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>19057</v>
+      </c>
+      <c r="E265">
+        <v>88</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="26"/>
+        <v>12657</v>
+      </c>
+      <c r="L265">
+        <v>19057</v>
+      </c>
+      <c r="M265">
+        <v>103</v>
+      </c>
+      <c r="N265">
+        <f t="shared" si="27"/>
+        <v>10857</v>
+      </c>
+      <c r="T265">
+        <v>19058</v>
+      </c>
+      <c r="U265">
+        <v>117</v>
+      </c>
+      <c r="V265">
+        <f t="shared" si="25"/>
+        <v>14258</v>
+      </c>
+    </row>
+    <row r="266" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>19308</v>
+      </c>
+      <c r="E266">
+        <v>87.75</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="26"/>
+        <v>12908</v>
+      </c>
+      <c r="L266">
+        <v>19308</v>
+      </c>
+      <c r="M266">
+        <v>102.5</v>
+      </c>
+      <c r="N266">
+        <f t="shared" si="27"/>
+        <v>11108</v>
+      </c>
+      <c r="T266">
+        <v>19309</v>
+      </c>
+      <c r="U266">
+        <v>116.5</v>
+      </c>
+      <c r="V266">
+        <f t="shared" si="25"/>
+        <v>14509</v>
+      </c>
+    </row>
+    <row r="267" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>19559</v>
+      </c>
+      <c r="E267">
+        <v>87.5</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="26"/>
+        <v>13159</v>
+      </c>
+      <c r="L267">
+        <v>19559</v>
+      </c>
+      <c r="M267">
+        <v>102.5</v>
+      </c>
+      <c r="N267">
+        <f t="shared" si="27"/>
+        <v>11359</v>
+      </c>
+      <c r="T267">
+        <v>19560</v>
+      </c>
+      <c r="U267">
+        <v>115.25</v>
+      </c>
+      <c r="V267">
+        <f t="shared" si="25"/>
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="268" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>19810</v>
+      </c>
+      <c r="E268">
+        <v>86.75</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="26"/>
+        <v>13410</v>
+      </c>
+      <c r="L268">
+        <v>19810</v>
+      </c>
+      <c r="M268">
+        <v>101.75</v>
+      </c>
+      <c r="N268">
+        <f t="shared" si="27"/>
+        <v>11610</v>
+      </c>
+      <c r="T268">
+        <v>19811</v>
+      </c>
+      <c r="U268">
+        <v>115.5</v>
+      </c>
+      <c r="V268">
+        <f t="shared" si="25"/>
+        <v>15011</v>
+      </c>
+    </row>
+    <row r="269" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>20060</v>
+      </c>
+      <c r="E269">
+        <v>86.5</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="26"/>
+        <v>13660</v>
+      </c>
+      <c r="L269">
+        <v>20061</v>
+      </c>
+      <c r="M269">
+        <v>101.25</v>
+      </c>
+      <c r="N269">
+        <f t="shared" si="27"/>
+        <v>11861</v>
+      </c>
+      <c r="T269">
+        <v>20062</v>
+      </c>
+      <c r="U269">
+        <v>115</v>
+      </c>
+      <c r="V269">
+        <f t="shared" si="25"/>
+        <v>15262</v>
+      </c>
+    </row>
+    <row r="270" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>20311</v>
+      </c>
+      <c r="E270">
+        <v>86.5</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="26"/>
+        <v>13911</v>
+      </c>
+      <c r="L270">
+        <v>20311</v>
+      </c>
+      <c r="M270">
+        <v>100.75</v>
+      </c>
+      <c r="N270">
+        <f t="shared" si="27"/>
+        <v>12111</v>
+      </c>
+      <c r="T270">
+        <v>20313</v>
+      </c>
+      <c r="U270">
+        <v>114.5</v>
+      </c>
+      <c r="V270">
+        <f t="shared" si="25"/>
+        <v>15513</v>
+      </c>
+    </row>
+    <row r="271" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>20561</v>
+      </c>
+      <c r="E271">
+        <v>86</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="26"/>
+        <v>14161</v>
+      </c>
+      <c r="L271">
+        <v>20561</v>
+      </c>
+      <c r="M271">
+        <v>99.5</v>
+      </c>
+      <c r="N271">
+        <f t="shared" si="27"/>
+        <v>12361</v>
+      </c>
+      <c r="T271">
+        <v>20562</v>
+      </c>
+      <c r="U271">
+        <v>114</v>
+      </c>
+      <c r="V271">
+        <f t="shared" si="25"/>
+        <v>15762</v>
+      </c>
+    </row>
+    <row r="272" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>20812</v>
+      </c>
+      <c r="E272">
+        <v>86</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="26"/>
+        <v>14412</v>
+      </c>
+      <c r="L272">
+        <v>20812</v>
+      </c>
+      <c r="M272">
+        <v>99.5</v>
+      </c>
+      <c r="N272">
+        <f t="shared" si="27"/>
+        <v>12612</v>
+      </c>
+      <c r="T272">
+        <v>20813</v>
+      </c>
+      <c r="U272">
+        <v>113.5</v>
+      </c>
+      <c r="V272">
+        <f t="shared" si="25"/>
+        <v>16013</v>
+      </c>
+    </row>
+    <row r="273" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>21063</v>
+      </c>
+      <c r="E273">
+        <v>85.75</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="26"/>
+        <v>14663</v>
+      </c>
+      <c r="L273">
+        <v>21063</v>
+      </c>
+      <c r="M273">
+        <v>98.25</v>
+      </c>
+      <c r="N273">
+        <f t="shared" si="27"/>
+        <v>12863</v>
+      </c>
+      <c r="T273">
+        <v>21064</v>
+      </c>
+      <c r="U273">
+        <v>113.25</v>
+      </c>
+      <c r="V273">
+        <f t="shared" si="25"/>
+        <v>16264</v>
+      </c>
+    </row>
+    <row r="274" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>21314</v>
+      </c>
+      <c r="E274">
+        <v>85.5</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="26"/>
+        <v>14914</v>
+      </c>
+      <c r="L274">
+        <v>21314</v>
+      </c>
+      <c r="M274">
+        <v>98.25</v>
+      </c>
+      <c r="N274">
+        <f t="shared" si="27"/>
+        <v>13114</v>
+      </c>
+      <c r="T274">
+        <v>21315</v>
+      </c>
+      <c r="U274">
+        <v>113</v>
+      </c>
+      <c r="V274">
+        <f t="shared" ref="V274:V335" si="28">T274-4800</f>
+        <v>16515</v>
+      </c>
+    </row>
+    <row r="275" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>21565</v>
+      </c>
+      <c r="E275">
+        <v>85.25</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="26"/>
+        <v>15165</v>
+      </c>
+      <c r="L275">
+        <v>21565</v>
+      </c>
+      <c r="M275">
+        <v>98</v>
+      </c>
+      <c r="N275">
+        <f t="shared" si="27"/>
+        <v>13365</v>
+      </c>
+      <c r="T275">
+        <v>21566</v>
+      </c>
+      <c r="U275">
+        <v>112.5</v>
+      </c>
+      <c r="V275">
+        <f t="shared" si="28"/>
+        <v>16766</v>
+      </c>
+    </row>
+    <row r="276" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>21816</v>
+      </c>
+      <c r="E276">
+        <v>85.5</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="26"/>
+        <v>15416</v>
+      </c>
+      <c r="L276">
+        <v>21816</v>
+      </c>
+      <c r="M276">
+        <v>97.25</v>
+      </c>
+      <c r="N276">
+        <f t="shared" si="27"/>
+        <v>13616</v>
+      </c>
+      <c r="T276">
+        <v>21817</v>
+      </c>
+      <c r="U276">
+        <v>112.25</v>
+      </c>
+      <c r="V276">
+        <f t="shared" si="28"/>
+        <v>17017</v>
+      </c>
+    </row>
+    <row r="277" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>22067</v>
+      </c>
+      <c r="E277">
+        <v>85</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="26"/>
+        <v>15667</v>
+      </c>
+      <c r="L277">
+        <v>22067</v>
+      </c>
+      <c r="M277">
+        <v>96.25</v>
+      </c>
+      <c r="N277">
+        <f t="shared" si="27"/>
+        <v>13867</v>
+      </c>
+      <c r="T277">
+        <v>22068</v>
+      </c>
+      <c r="U277">
+        <v>111.75</v>
+      </c>
+      <c r="V277">
+        <f t="shared" si="28"/>
+        <v>17268</v>
+      </c>
+    </row>
+    <row r="278" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>22317</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="26"/>
+        <v>15917</v>
+      </c>
+      <c r="L278">
+        <v>22318</v>
+      </c>
+      <c r="M278">
+        <v>96.5</v>
+      </c>
+      <c r="N278">
+        <f t="shared" si="27"/>
+        <v>14118</v>
+      </c>
+      <c r="T278">
+        <v>22319</v>
+      </c>
+      <c r="U278">
+        <v>111.75</v>
+      </c>
+      <c r="V278">
+        <f t="shared" si="28"/>
+        <v>17519</v>
+      </c>
+    </row>
+    <row r="279" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>22567</v>
+      </c>
+      <c r="E279">
+        <v>84.5</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="26"/>
+        <v>16167</v>
+      </c>
+      <c r="L279">
+        <v>22568</v>
+      </c>
+      <c r="M279">
+        <v>96.25</v>
+      </c>
+      <c r="N279">
+        <f t="shared" si="27"/>
+        <v>14368</v>
+      </c>
+      <c r="T279">
+        <v>22569</v>
+      </c>
+      <c r="U279">
+        <v>111.75</v>
+      </c>
+      <c r="V279">
+        <f t="shared" si="28"/>
+        <v>17769</v>
+      </c>
+    </row>
+    <row r="280" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>22818</v>
+      </c>
+      <c r="E280">
+        <v>85</v>
+      </c>
+      <c r="F280">
+        <f t="shared" ref="F280:F305" si="29">D280-6400</f>
+        <v>16418</v>
+      </c>
+      <c r="L280">
+        <v>22818</v>
+      </c>
+      <c r="M280">
+        <v>95.75</v>
+      </c>
+      <c r="N280">
+        <f t="shared" si="27"/>
+        <v>14618</v>
+      </c>
+      <c r="T280">
+        <v>22820</v>
+      </c>
+      <c r="U280">
+        <v>111.25</v>
+      </c>
+      <c r="V280">
+        <f t="shared" si="28"/>
+        <v>18020</v>
+      </c>
+    </row>
+    <row r="281" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>23069</v>
+      </c>
+      <c r="E281">
+        <v>84.75</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="29"/>
+        <v>16669</v>
+      </c>
+      <c r="L281">
+        <v>23069</v>
+      </c>
+      <c r="M281">
+        <v>96</v>
+      </c>
+      <c r="N281">
+        <f t="shared" si="27"/>
+        <v>14869</v>
+      </c>
+      <c r="T281">
+        <v>23071</v>
+      </c>
+      <c r="U281">
+        <v>111.25</v>
+      </c>
+      <c r="V281">
+        <f t="shared" si="28"/>
+        <v>18271</v>
+      </c>
+    </row>
+    <row r="282" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>23320</v>
+      </c>
+      <c r="E282">
+        <v>84.75</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="29"/>
+        <v>16920</v>
+      </c>
+      <c r="L282">
+        <v>23320</v>
+      </c>
+      <c r="M282">
+        <v>95.5</v>
+      </c>
+      <c r="N282">
+        <f t="shared" si="27"/>
+        <v>15120</v>
+      </c>
+      <c r="T282">
+        <v>23322</v>
+      </c>
+      <c r="U282">
+        <v>111.5</v>
+      </c>
+      <c r="V282">
+        <f t="shared" si="28"/>
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="283" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>23571</v>
+      </c>
+      <c r="E283">
+        <v>84.5</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="29"/>
+        <v>17171</v>
+      </c>
+      <c r="L283">
+        <v>23571</v>
+      </c>
+      <c r="M283">
+        <v>95</v>
+      </c>
+      <c r="N283">
+        <f t="shared" si="27"/>
+        <v>15371</v>
+      </c>
+      <c r="T283">
+        <v>23573</v>
+      </c>
+      <c r="U283">
+        <v>111</v>
+      </c>
+      <c r="V283">
+        <f t="shared" si="28"/>
+        <v>18773</v>
+      </c>
+    </row>
+    <row r="284" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>23822</v>
+      </c>
+      <c r="E284">
+        <v>84.5</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="29"/>
+        <v>17422</v>
+      </c>
+      <c r="L284">
+        <v>23822</v>
+      </c>
+      <c r="M284">
+        <v>94.25</v>
+      </c>
+      <c r="N284">
+        <f t="shared" si="27"/>
+        <v>15622</v>
+      </c>
+      <c r="T284">
+        <v>23824</v>
+      </c>
+      <c r="U284">
+        <v>110.75</v>
+      </c>
+      <c r="V284">
+        <f t="shared" si="28"/>
+        <v>19024</v>
+      </c>
+    </row>
+    <row r="285" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>24073</v>
+      </c>
+      <c r="E285">
+        <v>84.25</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="29"/>
+        <v>17673</v>
+      </c>
+      <c r="L285">
+        <v>24073</v>
+      </c>
+      <c r="M285">
+        <v>93.75</v>
+      </c>
+      <c r="N285">
+        <f t="shared" si="27"/>
+        <v>15873</v>
+      </c>
+      <c r="T285">
+        <v>24075</v>
+      </c>
+      <c r="U285">
+        <v>110.75</v>
+      </c>
+      <c r="V285">
+        <f t="shared" si="28"/>
+        <v>19275</v>
+      </c>
+    </row>
+    <row r="286" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>24324</v>
+      </c>
+      <c r="E286">
+        <v>84</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="29"/>
+        <v>17924</v>
+      </c>
+      <c r="L286">
+        <v>24324</v>
+      </c>
+      <c r="M286">
+        <v>93.75</v>
+      </c>
+      <c r="N286">
+        <f t="shared" si="27"/>
+        <v>16124</v>
+      </c>
+      <c r="T286">
+        <v>24326</v>
+      </c>
+      <c r="U286">
+        <v>111</v>
+      </c>
+      <c r="V286">
+        <f t="shared" si="28"/>
+        <v>19526</v>
+      </c>
+    </row>
+    <row r="287" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>24574</v>
+      </c>
+      <c r="E287">
+        <v>84</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="29"/>
+        <v>18174</v>
+      </c>
+      <c r="L287">
+        <v>24574</v>
+      </c>
+      <c r="M287">
+        <v>93.75</v>
+      </c>
+      <c r="N287">
+        <f t="shared" si="27"/>
+        <v>16374</v>
+      </c>
+      <c r="T287">
+        <v>24577</v>
+      </c>
+      <c r="U287">
+        <v>110.5</v>
+      </c>
+      <c r="V287">
+        <f t="shared" si="28"/>
+        <v>19777</v>
+      </c>
+    </row>
+    <row r="288" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>24824</v>
+      </c>
+      <c r="E288">
+        <v>84</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="29"/>
+        <v>18424</v>
+      </c>
+      <c r="L288">
+        <v>24825</v>
+      </c>
+      <c r="M288">
+        <v>93.25</v>
+      </c>
+      <c r="N288">
+        <f t="shared" si="27"/>
+        <v>16625</v>
+      </c>
+      <c r="T288">
+        <v>24826</v>
+      </c>
+      <c r="U288">
+        <v>110.75</v>
+      </c>
+      <c r="V288">
+        <f t="shared" si="28"/>
+        <v>20026</v>
+      </c>
+    </row>
+    <row r="289" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>25075</v>
+      </c>
+      <c r="E289">
+        <v>83.75</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="29"/>
+        <v>18675</v>
+      </c>
+      <c r="L289">
+        <v>25076</v>
+      </c>
+      <c r="M289">
+        <v>93</v>
+      </c>
+      <c r="N289">
+        <f t="shared" ref="N289:N306" si="30">L289-8200</f>
+        <v>16876</v>
+      </c>
+      <c r="T289">
+        <v>25077</v>
+      </c>
+      <c r="U289">
+        <v>110.5</v>
+      </c>
+      <c r="V289">
+        <f t="shared" si="28"/>
+        <v>20277</v>
+      </c>
+    </row>
+    <row r="290" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>25326</v>
+      </c>
+      <c r="E290">
+        <v>83.75</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="29"/>
+        <v>18926</v>
+      </c>
+      <c r="L290">
+        <v>25326</v>
+      </c>
+      <c r="M290">
+        <v>92.75</v>
+      </c>
+      <c r="N290">
+        <f t="shared" si="30"/>
+        <v>17126</v>
+      </c>
+      <c r="T290">
+        <v>25328</v>
+      </c>
+      <c r="U290">
+        <v>110.75</v>
+      </c>
+      <c r="V290">
+        <f t="shared" si="28"/>
+        <v>20528</v>
+      </c>
+    </row>
+    <row r="291" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>25577</v>
+      </c>
+      <c r="E291">
+        <v>83.25</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="29"/>
+        <v>19177</v>
+      </c>
+      <c r="L291">
+        <v>25577</v>
+      </c>
+      <c r="M291">
+        <v>92.5</v>
+      </c>
+      <c r="N291">
+        <f t="shared" si="30"/>
+        <v>17377</v>
+      </c>
+      <c r="T291">
+        <v>25579</v>
+      </c>
+      <c r="U291">
+        <v>110.75</v>
+      </c>
+      <c r="V291">
+        <f t="shared" si="28"/>
+        <v>20779</v>
+      </c>
+    </row>
+    <row r="292" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>25828</v>
+      </c>
+      <c r="E292">
+        <v>83.75</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="29"/>
+        <v>19428</v>
+      </c>
+      <c r="L292">
+        <v>25828</v>
+      </c>
+      <c r="M292">
+        <v>92</v>
+      </c>
+      <c r="N292">
+        <f t="shared" si="30"/>
+        <v>17628</v>
+      </c>
+      <c r="T292">
+        <v>25830</v>
+      </c>
+      <c r="U292">
+        <v>110.75</v>
+      </c>
+      <c r="V292">
+        <f t="shared" si="28"/>
+        <v>21030</v>
+      </c>
+    </row>
+    <row r="293" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>26079</v>
+      </c>
+      <c r="E293">
+        <v>83.5</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="29"/>
+        <v>19679</v>
+      </c>
+      <c r="L293">
+        <v>26079</v>
+      </c>
+      <c r="M293">
+        <v>92.25</v>
+      </c>
+      <c r="N293">
+        <f t="shared" si="30"/>
+        <v>17879</v>
+      </c>
+      <c r="T293">
+        <v>26081</v>
+      </c>
+      <c r="U293">
+        <v>110.5</v>
+      </c>
+      <c r="V293">
+        <f t="shared" si="28"/>
+        <v>21281</v>
+      </c>
+    </row>
+    <row r="294" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>26330</v>
+      </c>
+      <c r="E294">
+        <v>83.25</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="29"/>
+        <v>19930</v>
+      </c>
+      <c r="L294">
+        <v>26330</v>
+      </c>
+      <c r="M294">
+        <v>92.25</v>
+      </c>
+      <c r="N294">
+        <f t="shared" si="30"/>
+        <v>18130</v>
+      </c>
+      <c r="T294">
+        <v>26332</v>
+      </c>
+      <c r="U294">
+        <v>111.25</v>
+      </c>
+      <c r="V294">
+        <f t="shared" si="28"/>
+        <v>21532</v>
+      </c>
+    </row>
+    <row r="295" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>26580</v>
+      </c>
+      <c r="E295">
+        <v>83.25</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="29"/>
+        <v>20180</v>
+      </c>
+      <c r="L295">
+        <v>26580</v>
+      </c>
+      <c r="M295">
+        <v>91.75</v>
+      </c>
+      <c r="N295">
+        <f t="shared" si="30"/>
+        <v>18380</v>
+      </c>
+      <c r="T295">
+        <v>26583</v>
+      </c>
+      <c r="U295">
+        <v>111</v>
+      </c>
+      <c r="V295">
+        <f t="shared" si="28"/>
+        <v>21783</v>
+      </c>
+    </row>
+    <row r="296" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D296">
+        <v>26831</v>
+      </c>
+      <c r="E296">
+        <v>83.25</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="29"/>
+        <v>20431</v>
+      </c>
+      <c r="L296">
+        <v>26831</v>
+      </c>
+      <c r="M296">
+        <v>91.25</v>
+      </c>
+      <c r="N296">
+        <f t="shared" si="30"/>
+        <v>18631</v>
+      </c>
+      <c r="T296">
+        <v>26833</v>
+      </c>
+      <c r="U296">
+        <v>111.25</v>
+      </c>
+      <c r="V296">
+        <f t="shared" si="28"/>
+        <v>22033</v>
+      </c>
+    </row>
+    <row r="297" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>27082</v>
+      </c>
+      <c r="E297">
+        <v>83.5</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="29"/>
+        <v>20682</v>
+      </c>
+      <c r="L297">
+        <v>27082</v>
+      </c>
+      <c r="M297">
+        <v>91.5</v>
+      </c>
+      <c r="N297">
+        <f t="shared" si="30"/>
+        <v>18882</v>
+      </c>
+      <c r="T297">
+        <v>27084</v>
+      </c>
+      <c r="U297">
+        <v>111.25</v>
+      </c>
+      <c r="V297">
+        <f t="shared" si="28"/>
+        <v>22284</v>
+      </c>
+    </row>
+    <row r="298" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D298">
+        <v>27332</v>
+      </c>
+      <c r="E298">
+        <v>82.25</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="29"/>
+        <v>20932</v>
+      </c>
+      <c r="L298">
+        <v>27333</v>
+      </c>
+      <c r="M298">
+        <v>91</v>
+      </c>
+      <c r="N298">
+        <f t="shared" si="30"/>
+        <v>19133</v>
+      </c>
+      <c r="T298">
+        <v>27335</v>
+      </c>
+      <c r="U298">
+        <v>111.5</v>
+      </c>
+      <c r="V298">
+        <f t="shared" si="28"/>
+        <v>22535</v>
+      </c>
+    </row>
+    <row r="299" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D299">
+        <v>27583</v>
+      </c>
+      <c r="E299">
+        <v>82.25</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="29"/>
+        <v>21183</v>
+      </c>
+      <c r="L299">
+        <v>27584</v>
+      </c>
+      <c r="M299">
+        <v>91</v>
+      </c>
+      <c r="N299">
+        <f t="shared" si="30"/>
+        <v>19384</v>
+      </c>
+      <c r="T299">
+        <v>27586</v>
+      </c>
+      <c r="U299">
+        <v>111.5</v>
+      </c>
+      <c r="V299">
+        <f t="shared" si="28"/>
+        <v>22786</v>
+      </c>
+    </row>
+    <row r="300" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>27834</v>
+      </c>
+      <c r="E300">
+        <v>83</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="29"/>
+        <v>21434</v>
+      </c>
+      <c r="L300">
+        <v>27834</v>
+      </c>
+      <c r="M300">
+        <v>90.75</v>
+      </c>
+      <c r="N300">
+        <f t="shared" si="30"/>
+        <v>19634</v>
+      </c>
+      <c r="T300">
+        <v>27837</v>
+      </c>
+      <c r="U300">
+        <v>111.75</v>
+      </c>
+      <c r="V300">
+        <f t="shared" si="28"/>
+        <v>23037</v>
+      </c>
+    </row>
+    <row r="301" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>28085</v>
+      </c>
+      <c r="E301">
+        <v>82.5</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="29"/>
+        <v>21685</v>
+      </c>
+      <c r="L301">
+        <v>28085</v>
+      </c>
+      <c r="M301">
+        <v>90.75</v>
+      </c>
+      <c r="N301">
+        <f t="shared" si="30"/>
+        <v>19885</v>
+      </c>
+      <c r="T301">
+        <v>28088</v>
+      </c>
+      <c r="U301">
+        <v>111.25</v>
+      </c>
+      <c r="V301">
+        <f t="shared" si="28"/>
+        <v>23288</v>
+      </c>
+    </row>
+    <row r="302" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>28336</v>
+      </c>
+      <c r="E302">
+        <v>82.25</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="29"/>
+        <v>21936</v>
+      </c>
+      <c r="L302">
+        <v>28336</v>
+      </c>
+      <c r="M302">
+        <v>90.5</v>
+      </c>
+      <c r="N302">
+        <f t="shared" si="30"/>
+        <v>20136</v>
+      </c>
+      <c r="T302">
+        <v>28339</v>
+      </c>
+      <c r="U302">
+        <v>112</v>
+      </c>
+      <c r="V302">
+        <f t="shared" si="28"/>
+        <v>23539</v>
+      </c>
+    </row>
+    <row r="303" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <v>28587</v>
+      </c>
+      <c r="E303">
+        <v>82.5</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="29"/>
+        <v>22187</v>
+      </c>
+      <c r="L303">
+        <v>28587</v>
+      </c>
+      <c r="M303">
+        <v>90.5</v>
+      </c>
+      <c r="N303">
+        <f t="shared" si="30"/>
+        <v>20387</v>
+      </c>
+      <c r="T303">
+        <v>28590</v>
+      </c>
+      <c r="U303">
+        <v>112.25</v>
+      </c>
+      <c r="V303">
+        <f t="shared" si="28"/>
+        <v>23790</v>
+      </c>
+    </row>
+    <row r="304" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>28837</v>
+      </c>
+      <c r="E304">
+        <v>82.5</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="29"/>
+        <v>22437</v>
+      </c>
+      <c r="L304">
+        <v>28837</v>
+      </c>
+      <c r="M304">
+        <v>90</v>
+      </c>
+      <c r="N304">
+        <f t="shared" si="30"/>
+        <v>20637</v>
+      </c>
+      <c r="T304">
+        <v>28840</v>
+      </c>
+      <c r="U304">
+        <v>112.5</v>
+      </c>
+      <c r="V304">
+        <f t="shared" si="28"/>
+        <v>24040</v>
+      </c>
+    </row>
+    <row r="305" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>29088</v>
+      </c>
+      <c r="E305">
+        <v>82</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="29"/>
+        <v>22688</v>
+      </c>
+      <c r="L305">
+        <v>29088</v>
+      </c>
+      <c r="M305">
+        <v>90</v>
+      </c>
+      <c r="N305">
+        <f t="shared" si="30"/>
+        <v>20888</v>
+      </c>
+      <c r="T305">
+        <v>29090</v>
+      </c>
+      <c r="U305">
+        <v>112.5</v>
+      </c>
+      <c r="V305">
+        <f t="shared" si="28"/>
+        <v>24290</v>
+      </c>
+    </row>
+    <row r="306" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="L306">
+        <v>29339</v>
+      </c>
+      <c r="M306">
+        <v>90</v>
+      </c>
+      <c r="N306">
+        <f t="shared" si="30"/>
+        <v>21139</v>
+      </c>
+      <c r="T306">
+        <v>29341</v>
+      </c>
+      <c r="U306">
+        <v>112.5</v>
+      </c>
+      <c r="V306">
+        <f t="shared" si="28"/>
+        <v>24541</v>
+      </c>
+    </row>
+    <row r="307" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T307">
+        <v>29592</v>
+      </c>
+      <c r="U307">
+        <v>112.75</v>
+      </c>
+      <c r="V307">
+        <f t="shared" si="28"/>
+        <v>24792</v>
+      </c>
+    </row>
+    <row r="308" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T308">
+        <v>29843</v>
+      </c>
+      <c r="U308">
+        <v>112.75</v>
+      </c>
+      <c r="V308">
+        <f t="shared" si="28"/>
+        <v>25043</v>
+      </c>
+    </row>
+    <row r="309" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T309">
+        <v>30094</v>
+      </c>
+      <c r="U309">
+        <v>113</v>
+      </c>
+      <c r="V309">
+        <f t="shared" si="28"/>
+        <v>25294</v>
+      </c>
+    </row>
+    <row r="310" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T310">
+        <v>30345</v>
+      </c>
+      <c r="U310">
+        <v>113</v>
+      </c>
+      <c r="V310">
+        <f t="shared" si="28"/>
+        <v>25545</v>
+      </c>
+    </row>
+    <row r="311" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T311">
+        <v>30596</v>
+      </c>
+      <c r="U311">
+        <v>113</v>
+      </c>
+      <c r="V311">
+        <f t="shared" si="28"/>
+        <v>25796</v>
+      </c>
+    </row>
+    <row r="312" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T312">
+        <v>30846</v>
+      </c>
+      <c r="U312">
+        <v>113</v>
+      </c>
+      <c r="V312">
+        <f t="shared" si="28"/>
+        <v>26046</v>
+      </c>
+    </row>
+    <row r="313" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T313">
+        <v>31097</v>
+      </c>
+      <c r="U313">
+        <v>113.25</v>
+      </c>
+      <c r="V313">
+        <f t="shared" si="28"/>
+        <v>26297</v>
+      </c>
+    </row>
+    <row r="314" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T314">
+        <v>31348</v>
+      </c>
+      <c r="U314">
+        <v>113.25</v>
+      </c>
+      <c r="V314">
+        <f t="shared" si="28"/>
+        <v>26548</v>
+      </c>
+    </row>
+    <row r="315" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T315">
+        <v>31599</v>
+      </c>
+      <c r="U315">
+        <v>113.5</v>
+      </c>
+      <c r="V315">
+        <f t="shared" si="28"/>
+        <v>26799</v>
+      </c>
+    </row>
+    <row r="316" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T316">
+        <v>31850</v>
+      </c>
+      <c r="U316">
+        <v>113.75</v>
+      </c>
+      <c r="V316">
+        <f t="shared" si="28"/>
+        <v>27050</v>
+      </c>
+    </row>
+    <row r="317" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T317">
+        <v>32101</v>
+      </c>
+      <c r="U317">
+        <v>114</v>
+      </c>
+      <c r="V317">
+        <f t="shared" si="28"/>
+        <v>27301</v>
+      </c>
+    </row>
+    <row r="318" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T318">
+        <v>32352</v>
+      </c>
+      <c r="U318">
+        <v>114</v>
+      </c>
+      <c r="V318">
+        <f t="shared" si="28"/>
+        <v>27552</v>
+      </c>
+    </row>
+    <row r="319" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T319">
+        <v>32603</v>
+      </c>
+      <c r="U319">
+        <v>114</v>
+      </c>
+      <c r="V319">
+        <f t="shared" si="28"/>
+        <v>27803</v>
+      </c>
+    </row>
+    <row r="320" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="T320">
+        <v>32854</v>
+      </c>
+      <c r="U320">
+        <v>114</v>
+      </c>
+      <c r="V320">
+        <f t="shared" si="28"/>
+        <v>28054</v>
+      </c>
+    </row>
+    <row r="321" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T321">
+        <v>33104</v>
+      </c>
+      <c r="U321">
+        <v>114.5</v>
+      </c>
+      <c r="V321">
+        <f t="shared" si="28"/>
+        <v>28304</v>
+      </c>
+    </row>
+    <row r="322" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T322">
+        <v>33354</v>
+      </c>
+      <c r="U322">
+        <v>114.25</v>
+      </c>
+      <c r="V322">
+        <f t="shared" si="28"/>
+        <v>28554</v>
+      </c>
+    </row>
+    <row r="323" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T323">
+        <v>33605</v>
+      </c>
+      <c r="U323">
+        <v>114.5</v>
+      </c>
+      <c r="V323">
+        <f t="shared" si="28"/>
+        <v>28805</v>
+      </c>
+    </row>
+    <row r="324" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T324">
+        <v>33856</v>
+      </c>
+      <c r="U324">
+        <v>114.5</v>
+      </c>
+      <c r="V324">
+        <f t="shared" si="28"/>
+        <v>29056</v>
+      </c>
+    </row>
+    <row r="325" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T325">
+        <v>34107</v>
+      </c>
+      <c r="U325">
+        <v>114.75</v>
+      </c>
+      <c r="V325">
+        <f t="shared" si="28"/>
+        <v>29307</v>
+      </c>
+    </row>
+    <row r="326" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T326">
+        <v>34358</v>
+      </c>
+      <c r="U326">
+        <v>114.5</v>
+      </c>
+      <c r="V326">
+        <f t="shared" si="28"/>
+        <v>29558</v>
+      </c>
+    </row>
+    <row r="327" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T327">
+        <v>34609</v>
+      </c>
+      <c r="U327">
+        <v>114.75</v>
+      </c>
+      <c r="V327">
+        <f t="shared" si="28"/>
+        <v>29809</v>
+      </c>
+    </row>
+    <row r="328" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T328">
+        <v>34860</v>
+      </c>
+      <c r="U328">
+        <v>115</v>
+      </c>
+      <c r="V328">
+        <f t="shared" si="28"/>
+        <v>30060</v>
+      </c>
+    </row>
+    <row r="329" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T329">
+        <v>35110</v>
+      </c>
+      <c r="U329">
+        <v>114.75</v>
+      </c>
+      <c r="V329">
+        <f t="shared" si="28"/>
+        <v>30310</v>
+      </c>
+    </row>
+    <row r="330" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T330">
+        <v>35361</v>
+      </c>
+      <c r="U330">
+        <v>115.25</v>
+      </c>
+      <c r="V330">
+        <f t="shared" si="28"/>
+        <v>30561</v>
+      </c>
+    </row>
+    <row r="331" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T331">
+        <v>35612</v>
+      </c>
+      <c r="U331">
+        <v>115</v>
+      </c>
+      <c r="V331">
+        <f t="shared" si="28"/>
+        <v>30812</v>
+      </c>
+    </row>
+    <row r="332" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T332">
+        <v>35863</v>
+      </c>
+      <c r="U332">
+        <v>114.75</v>
+      </c>
+      <c r="V332">
+        <f t="shared" si="28"/>
+        <v>31063</v>
+      </c>
+    </row>
+    <row r="333" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T333">
+        <v>36114</v>
+      </c>
+      <c r="U333">
+        <v>115</v>
+      </c>
+      <c r="V333">
+        <f t="shared" si="28"/>
+        <v>31314</v>
+      </c>
+    </row>
+    <row r="334" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T334">
+        <v>36365</v>
+      </c>
+      <c r="U334">
+        <v>115.5</v>
+      </c>
+      <c r="V334">
+        <f t="shared" si="28"/>
+        <v>31565</v>
+      </c>
+    </row>
+    <row r="335" spans="20:22" x14ac:dyDescent="0.3">
+      <c r="T335">
+        <v>36616</v>
+      </c>
+      <c r="U335">
+        <v>115</v>
+      </c>
+      <c r="V335">
+        <f t="shared" si="28"/>
+        <v>31816</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A142:O142"/>
-    <mergeCell ref="A143:O143"/>
-    <mergeCell ref="A141:R141"/>
-    <mergeCell ref="A144:P144"/>
-    <mergeCell ref="A145:P145"/>
-    <mergeCell ref="A137:K137"/>
-    <mergeCell ref="A139:K139"/>
-    <mergeCell ref="A140:P140"/>
-    <mergeCell ref="A99:S99"/>
-    <mergeCell ref="A129:K129"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A136:K136"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="K85:L85"/>
+  <mergeCells count="54">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
@@ -25261,28 +31038,31 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C47:K47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="A137:K137"/>
+    <mergeCell ref="A139:K139"/>
+    <mergeCell ref="A154:P154"/>
+    <mergeCell ref="A99:S99"/>
+    <mergeCell ref="A129:K129"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A136:K136"/>
+    <mergeCell ref="A144:R144"/>
+    <mergeCell ref="A143:O143"/>
+    <mergeCell ref="A153:K153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>